--- a/Testing/wrist_2-14.xlsx
+++ b/Testing/wrist_2-14.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="60" windowWidth="16220" windowHeight="14320" tabRatio="500"/>
+    <workbookView xWindow="180" yWindow="0" windowWidth="16220" windowHeight="14320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="41">
   <si>
     <t>These readings were taken on 2/14 with the prototype bracelet form factor and the new lm324n op amp</t>
   </si>
@@ -134,6 +134,15 @@
   <si>
     <t>t+4:04</t>
   </si>
+  <si>
+    <t>Final tests: using a factor variation of 1.4</t>
+  </si>
+  <si>
+    <t>t+4:14:24</t>
+  </si>
+  <si>
+    <t>t+4:14</t>
+  </si>
 </sst>
 </file>
 
@@ -199,8 +208,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -256,7 +267,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -279,6 +290,7 @@
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -301,6 +313,7 @@
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -630,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CD312"/>
+  <dimension ref="A1:CK312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BX1" workbookViewId="0">
-      <selection activeCell="CD1" sqref="CD1"/>
+    <sheetView tabSelected="1" topLeftCell="CA1" workbookViewId="0">
+      <selection activeCell="CF1" sqref="CF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -642,7 +655,7 @@
     <col min="10" max="10" width="13.83203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82">
+    <row r="1" spans="1:89">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -667,8 +680,11 @@
       <c r="BR1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:82" s="1" customFormat="1">
+      <c r="BY1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:89" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -879,8 +895,26 @@
       <c r="CD2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:82">
+      <c r="CF2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="CI2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="CJ2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="CK2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:89">
       <c r="A3" s="2">
         <v>33.148000000000003</v>
       </c>
@@ -1116,8 +1150,28 @@
         <f>CORREL(CA3:CA80,CC3:CC80)</f>
         <v>0.94211916205180235</v>
       </c>
-    </row>
-    <row r="4" spans="1:82">
+      <c r="CF3">
+        <v>14.010999999999999</v>
+      </c>
+      <c r="CG3">
+        <f t="shared" ref="CG3:CG57" si="7">CF3+24</f>
+        <v>38.010999999999996</v>
+      </c>
+      <c r="CH3">
+        <v>65</v>
+      </c>
+      <c r="CI3" s="3">
+        <v>41684.176828252312</v>
+      </c>
+      <c r="CJ3">
+        <v>65</v>
+      </c>
+      <c r="CK3">
+        <f>CORREL(CH3:CH57,CJ3:CJ57)</f>
+        <v>0.97904476205082547</v>
+      </c>
+    </row>
+    <row r="4" spans="1:89">
       <c r="A4" s="2">
         <v>34.093000000000004</v>
       </c>
@@ -1134,7 +1188,7 @@
         <v>68.003</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" ref="H4:H65" si="7">G4-31</f>
+        <f t="shared" ref="H4:H65" si="8">G4-31</f>
         <v>37.003</v>
       </c>
       <c r="I4">
@@ -1182,7 +1236,7 @@
         <v>17.140999999999998</v>
       </c>
       <c r="AC4">
-        <f t="shared" ref="AC4:AC66" si="8">AB4+37</f>
+        <f t="shared" ref="AC4:AC66" si="9">AB4+37</f>
         <v>54.140999999999998</v>
       </c>
       <c r="AD4">
@@ -1293,7 +1347,7 @@
         <v>55.027000000000001</v>
       </c>
       <c r="BZ4">
-        <f t="shared" ref="BZ4:BZ67" si="9">BY4-46</f>
+        <f t="shared" ref="BZ4:BZ67" si="10">BY4-46</f>
         <v>9.027000000000001</v>
       </c>
       <c r="CA4">
@@ -1305,8 +1359,24 @@
       <c r="CC4">
         <v>66</v>
       </c>
-    </row>
-    <row r="5" spans="1:82">
+      <c r="CF4">
+        <v>15.042</v>
+      </c>
+      <c r="CG4">
+        <f t="shared" si="7"/>
+        <v>39.042000000000002</v>
+      </c>
+      <c r="CH4">
+        <v>64</v>
+      </c>
+      <c r="CI4" s="3">
+        <v>41684.176841099536</v>
+      </c>
+      <c r="CJ4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:89">
       <c r="A5" s="2">
         <v>35.139000000000003</v>
       </c>
@@ -1323,7 +1393,7 @@
         <v>69.082999999999998</v>
       </c>
       <c r="H5" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>38.082999999999998</v>
       </c>
       <c r="I5">
@@ -1371,7 +1441,7 @@
         <v>18.04</v>
       </c>
       <c r="AC5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>55.04</v>
       </c>
       <c r="AD5">
@@ -1482,7 +1552,7 @@
         <v>56.026000000000003</v>
       </c>
       <c r="BZ5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10.026000000000003</v>
       </c>
       <c r="CA5">
@@ -1494,8 +1564,24 @@
       <c r="CC5">
         <v>66</v>
       </c>
-    </row>
-    <row r="6" spans="1:82">
+      <c r="CF5">
+        <v>16.106999999999999</v>
+      </c>
+      <c r="CG5">
+        <f t="shared" si="7"/>
+        <v>40.106999999999999</v>
+      </c>
+      <c r="CH5">
+        <v>64</v>
+      </c>
+      <c r="CI5" s="3">
+        <v>41684.176853946759</v>
+      </c>
+      <c r="CJ5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:89">
       <c r="A6" s="2">
         <v>36.090000000000003</v>
       </c>
@@ -1512,7 +1598,7 @@
         <v>70.034000000000006</v>
       </c>
       <c r="H6" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>39.034000000000006</v>
       </c>
       <c r="I6">
@@ -1560,7 +1646,7 @@
         <v>19.068999999999999</v>
       </c>
       <c r="AC6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>56.069000000000003</v>
       </c>
       <c r="AD6">
@@ -1671,7 +1757,7 @@
         <v>57.052</v>
       </c>
       <c r="BZ6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11.052</v>
       </c>
       <c r="CA6">
@@ -1683,8 +1769,24 @@
       <c r="CC6">
         <v>67</v>
       </c>
-    </row>
-    <row r="7" spans="1:82">
+      <c r="CF6">
+        <v>17.126000000000001</v>
+      </c>
+      <c r="CG6">
+        <f t="shared" si="7"/>
+        <v>41.126000000000005</v>
+      </c>
+      <c r="CH6">
+        <v>65</v>
+      </c>
+      <c r="CI6" s="3">
+        <v>41684.176866793983</v>
+      </c>
+      <c r="CJ6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:89">
       <c r="A7" s="2">
         <v>37.146999999999998</v>
       </c>
@@ -1701,7 +1803,7 @@
         <v>71.043999999999997</v>
       </c>
       <c r="H7" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>40.043999999999997</v>
       </c>
       <c r="I7">
@@ -1749,7 +1851,7 @@
         <v>20.099</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>57.099000000000004</v>
       </c>
       <c r="AD7">
@@ -1860,7 +1962,7 @@
         <v>58.045000000000002</v>
       </c>
       <c r="BZ7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12.045000000000002</v>
       </c>
       <c r="CA7">
@@ -1872,8 +1974,24 @@
       <c r="CC7">
         <v>67</v>
       </c>
-    </row>
-    <row r="8" spans="1:82">
+      <c r="CF7">
+        <v>18.035</v>
+      </c>
+      <c r="CG7">
+        <f t="shared" si="7"/>
+        <v>42.034999999999997</v>
+      </c>
+      <c r="CH7">
+        <v>65</v>
+      </c>
+      <c r="CI7" s="3">
+        <v>41684.176875358797</v>
+      </c>
+      <c r="CJ7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:89">
       <c r="A8" s="2">
         <v>38.061999999999998</v>
       </c>
@@ -1890,7 +2008,7 @@
         <v>72.134</v>
       </c>
       <c r="H8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41.134</v>
       </c>
       <c r="I8">
@@ -1938,7 +2056,7 @@
         <v>21.029</v>
       </c>
       <c r="AC8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>58.028999999999996</v>
       </c>
       <c r="AD8">
@@ -2049,7 +2167,7 @@
         <v>59.015000000000001</v>
       </c>
       <c r="BZ8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13.015000000000001</v>
       </c>
       <c r="CA8">
@@ -2061,8 +2179,24 @@
       <c r="CC8">
         <v>66</v>
       </c>
-    </row>
-    <row r="9" spans="1:82">
+      <c r="CF8">
+        <v>19.068999999999999</v>
+      </c>
+      <c r="CG8">
+        <f t="shared" si="7"/>
+        <v>43.069000000000003</v>
+      </c>
+      <c r="CH8">
+        <v>67</v>
+      </c>
+      <c r="CI8" s="3">
+        <v>41684.176888229165</v>
+      </c>
+      <c r="CJ8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:89">
       <c r="A9" s="2">
         <v>39.155000000000001</v>
       </c>
@@ -2079,7 +2213,7 @@
         <v>73.094999999999999</v>
       </c>
       <c r="H9" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42.094999999999999</v>
       </c>
       <c r="I9">
@@ -2127,7 +2261,7 @@
         <v>22.116</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>59.116</v>
       </c>
       <c r="AD9">
@@ -2238,7 +2372,7 @@
         <v>60.1</v>
       </c>
       <c r="BZ9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>14.100000000000001</v>
       </c>
       <c r="CA9">
@@ -2250,8 +2384,24 @@
       <c r="CC9">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="1:82">
+      <c r="CF9">
+        <v>20.105</v>
+      </c>
+      <c r="CG9">
+        <f t="shared" si="7"/>
+        <v>44.105000000000004</v>
+      </c>
+      <c r="CH9">
+        <v>68</v>
+      </c>
+      <c r="CI9" s="3">
+        <v>41684.176901064813</v>
+      </c>
+      <c r="CJ9">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:89">
       <c r="A10" s="2">
         <v>40.087000000000003</v>
       </c>
@@ -2268,7 +2418,7 @@
         <v>74.046999999999997</v>
       </c>
       <c r="H10" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43.046999999999997</v>
       </c>
       <c r="I10">
@@ -2316,7 +2466,7 @@
         <v>23.082999999999998</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>60.082999999999998</v>
       </c>
       <c r="AD10">
@@ -2427,7 +2577,7 @@
         <v>61.043999999999997</v>
       </c>
       <c r="BZ10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>15.043999999999997</v>
       </c>
       <c r="CA10">
@@ -2439,8 +2589,24 @@
       <c r="CC10">
         <v>66</v>
       </c>
-    </row>
-    <row r="11" spans="1:82">
+      <c r="CF10">
+        <v>21.13</v>
+      </c>
+      <c r="CG10">
+        <f t="shared" si="7"/>
+        <v>45.129999999999995</v>
+      </c>
+      <c r="CH10">
+        <v>69</v>
+      </c>
+      <c r="CI10" s="3">
+        <v>41684.176909618058</v>
+      </c>
+      <c r="CJ10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:89">
       <c r="A11" s="2">
         <v>41.018000000000001</v>
       </c>
@@ -2457,7 +2623,7 @@
         <v>75.108999999999995</v>
       </c>
       <c r="H11" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44.108999999999995</v>
       </c>
       <c r="I11">
@@ -2505,7 +2671,7 @@
         <v>24.128</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>61.128</v>
       </c>
       <c r="AD11">
@@ -2616,7 +2782,7 @@
         <v>62.119</v>
       </c>
       <c r="BZ11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16.119</v>
       </c>
       <c r="CA11">
@@ -2628,8 +2794,24 @@
       <c r="CC11">
         <v>67</v>
       </c>
-    </row>
-    <row r="12" spans="1:82">
+      <c r="CF11">
+        <v>22.082000000000001</v>
+      </c>
+      <c r="CG11">
+        <f t="shared" si="7"/>
+        <v>46.082000000000001</v>
+      </c>
+      <c r="CH11">
+        <v>70</v>
+      </c>
+      <c r="CI11" s="3">
+        <v>41684.176922465274</v>
+      </c>
+      <c r="CJ11">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:89">
       <c r="A12" s="2">
         <v>42.091999999999999</v>
       </c>
@@ -2646,7 +2828,7 @@
         <v>76.024000000000001</v>
       </c>
       <c r="H12" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>45.024000000000001</v>
       </c>
       <c r="I12">
@@ -2694,7 +2876,7 @@
         <v>25.036999999999999</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>62.036999999999999</v>
       </c>
       <c r="AD12">
@@ -2805,7 +2987,7 @@
         <v>63.054000000000002</v>
       </c>
       <c r="BZ12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>17.054000000000002</v>
       </c>
       <c r="CA12">
@@ -2817,8 +2999,24 @@
       <c r="CC12">
         <v>67</v>
       </c>
-    </row>
-    <row r="13" spans="1:82">
+      <c r="CF12">
+        <v>23.152000000000001</v>
+      </c>
+      <c r="CG12">
+        <f t="shared" si="7"/>
+        <v>47.152000000000001</v>
+      </c>
+      <c r="CH12">
+        <v>71</v>
+      </c>
+      <c r="CI12" s="3">
+        <v>41684.176935312498</v>
+      </c>
+      <c r="CJ12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:89">
       <c r="A13" s="2">
         <v>43.01</v>
       </c>
@@ -2835,7 +3033,7 @@
         <v>77.134</v>
       </c>
       <c r="H13" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>46.134</v>
       </c>
       <c r="I13">
@@ -2883,7 +3081,7 @@
         <v>26.137</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>63.137</v>
       </c>
       <c r="AD13">
@@ -2994,7 +3192,7 @@
         <v>64.132999999999996</v>
       </c>
       <c r="BZ13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>18.132999999999996</v>
       </c>
       <c r="CA13">
@@ -3006,8 +3204,24 @@
       <c r="CC13">
         <v>68</v>
       </c>
-    </row>
-    <row r="14" spans="1:82">
+      <c r="CF13">
+        <v>24.055</v>
+      </c>
+      <c r="CG13">
+        <f t="shared" si="7"/>
+        <v>48.055</v>
+      </c>
+      <c r="CH13">
+        <v>72</v>
+      </c>
+      <c r="CI13" s="3">
+        <v>41684.176948194443</v>
+      </c>
+      <c r="CJ13">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:89">
       <c r="A14" s="2">
         <v>44.052999999999997</v>
       </c>
@@ -3024,7 +3238,7 @@
         <v>78.049000000000007</v>
       </c>
       <c r="H14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>47.049000000000007</v>
       </c>
       <c r="I14">
@@ -3072,7 +3286,7 @@
         <v>27.087</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>64.087000000000003</v>
       </c>
       <c r="AD14">
@@ -3183,7 +3397,7 @@
         <v>65.061999999999998</v>
       </c>
       <c r="BZ14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>19.061999999999998</v>
       </c>
       <c r="CA14">
@@ -3195,8 +3409,24 @@
       <c r="CC14">
         <v>70</v>
       </c>
-    </row>
-    <row r="15" spans="1:82">
+      <c r="CF14">
+        <v>25.149000000000001</v>
+      </c>
+      <c r="CG14">
+        <f t="shared" si="7"/>
+        <v>49.149000000000001</v>
+      </c>
+      <c r="CH14">
+        <v>73</v>
+      </c>
+      <c r="CI14" s="3">
+        <v>41684.176956724536</v>
+      </c>
+      <c r="CJ14">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:89">
       <c r="A15" s="2">
         <v>45.143000000000001</v>
       </c>
@@ -3213,7 +3443,7 @@
         <v>79.123999999999995</v>
       </c>
       <c r="H15" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>48.123999999999995</v>
       </c>
       <c r="I15">
@@ -3261,7 +3491,7 @@
         <v>28.033000000000001</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>65.033000000000001</v>
       </c>
       <c r="AD15">
@@ -3372,7 +3602,7 @@
         <v>66.147999999999996</v>
       </c>
       <c r="BZ15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>20.147999999999996</v>
       </c>
       <c r="CA15">
@@ -3384,8 +3614,24 @@
       <c r="CC15">
         <v>72</v>
       </c>
-    </row>
-    <row r="16" spans="1:82">
+      <c r="CF15">
+        <v>26.1</v>
+      </c>
+      <c r="CG15">
+        <f t="shared" si="7"/>
+        <v>50.1</v>
+      </c>
+      <c r="CH15">
+        <v>74</v>
+      </c>
+      <c r="CI15" s="3">
+        <v>41684.17696960648</v>
+      </c>
+      <c r="CJ15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:89">
       <c r="A16" s="2">
         <v>46.043999999999997</v>
       </c>
@@ -3402,7 +3648,7 @@
         <v>80.046000000000006</v>
       </c>
       <c r="H16" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>49.046000000000006</v>
       </c>
       <c r="I16">
@@ -3450,7 +3696,7 @@
         <v>29.132000000000001</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>66.132000000000005</v>
       </c>
       <c r="AD16">
@@ -3561,7 +3807,7 @@
         <v>67.043999999999997</v>
       </c>
       <c r="BZ16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>21.043999999999997</v>
       </c>
       <c r="CA16">
@@ -3573,8 +3819,24 @@
       <c r="CC16">
         <v>73</v>
       </c>
-    </row>
-    <row r="17" spans="1:81">
+      <c r="CF16">
+        <v>27.055</v>
+      </c>
+      <c r="CG16">
+        <f t="shared" si="7"/>
+        <v>51.055</v>
+      </c>
+      <c r="CH16">
+        <v>76</v>
+      </c>
+      <c r="CI16" s="3">
+        <v>41684.176982430552</v>
+      </c>
+      <c r="CJ16">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:88">
       <c r="A17" s="2">
         <v>47.131999999999998</v>
       </c>
@@ -3591,7 +3853,7 @@
         <v>81.037000000000006</v>
       </c>
       <c r="H17" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>50.037000000000006</v>
       </c>
       <c r="I17">
@@ -3639,7 +3901,7 @@
         <v>30.097000000000001</v>
       </c>
       <c r="AC17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>67.097000000000008</v>
       </c>
       <c r="AD17">
@@ -3750,7 +4012,7 @@
         <v>68.003</v>
       </c>
       <c r="BZ17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>22.003</v>
       </c>
       <c r="CA17">
@@ -3762,8 +4024,24 @@
       <c r="CC17">
         <v>74</v>
       </c>
-    </row>
-    <row r="18" spans="1:81">
+      <c r="CF17">
+        <v>28.004000000000001</v>
+      </c>
+      <c r="CG17">
+        <f t="shared" si="7"/>
+        <v>52.004000000000005</v>
+      </c>
+      <c r="CH17">
+        <v>76</v>
+      </c>
+      <c r="CI17" s="3">
+        <v>41684.176990983797</v>
+      </c>
+      <c r="CJ17">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:88">
       <c r="A18" s="2">
         <v>48.079000000000001</v>
       </c>
@@ -3780,7 +4058,7 @@
         <v>82.013000000000005</v>
       </c>
       <c r="H18" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>51.013000000000005</v>
       </c>
       <c r="I18">
@@ -3828,7 +4106,7 @@
         <v>31.111000000000001</v>
       </c>
       <c r="AC18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>68.111000000000004</v>
       </c>
       <c r="AD18">
@@ -3939,7 +4217,7 @@
         <v>69.003</v>
       </c>
       <c r="BZ18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>23.003</v>
       </c>
       <c r="CA18">
@@ -3951,8 +4229,24 @@
       <c r="CC18">
         <v>75</v>
       </c>
-    </row>
-    <row r="19" spans="1:81">
+      <c r="CF18">
+        <v>29.155999999999999</v>
+      </c>
+      <c r="CG18">
+        <f t="shared" si="7"/>
+        <v>53.155999999999999</v>
+      </c>
+      <c r="CH18">
+        <v>78</v>
+      </c>
+      <c r="CI18" s="3">
+        <v>41684.177003854165</v>
+      </c>
+      <c r="CJ18">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:88">
       <c r="A19" s="2">
         <v>49.137</v>
       </c>
@@ -3969,7 +4263,7 @@
         <v>83.144000000000005</v>
       </c>
       <c r="H19" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>52.144000000000005</v>
       </c>
       <c r="I19">
@@ -4017,7 +4311,7 @@
         <v>32.051000000000002</v>
       </c>
       <c r="AC19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>69.051000000000002</v>
       </c>
       <c r="AD19">
@@ -4128,7 +4422,7 @@
         <v>70.119</v>
       </c>
       <c r="BZ19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>24.119</v>
       </c>
       <c r="CA19">
@@ -4140,8 +4434,24 @@
       <c r="CC19">
         <v>76</v>
       </c>
-    </row>
-    <row r="20" spans="1:81">
+      <c r="CF19">
+        <v>30.074000000000002</v>
+      </c>
+      <c r="CG19">
+        <f t="shared" si="7"/>
+        <v>54.073999999999998</v>
+      </c>
+      <c r="CH19">
+        <v>78</v>
+      </c>
+      <c r="CI19" s="3">
+        <v>41684.177016678237</v>
+      </c>
+      <c r="CJ19">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:88">
       <c r="A20" s="2">
         <v>50.039000000000001</v>
       </c>
@@ -4158,7 +4468,7 @@
         <v>84.08</v>
       </c>
       <c r="H20" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>53.08</v>
       </c>
       <c r="I20">
@@ -4206,7 +4516,7 @@
         <v>33.113</v>
       </c>
       <c r="AC20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>70.113</v>
       </c>
       <c r="AD20">
@@ -4317,7 +4627,7 @@
         <v>71.093000000000004</v>
       </c>
       <c r="BZ20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>25.093000000000004</v>
       </c>
       <c r="CA20">
@@ -4329,8 +4639,24 @@
       <c r="CC20">
         <v>77</v>
       </c>
-    </row>
-    <row r="21" spans="1:81">
+      <c r="CF20">
+        <v>31.018000000000001</v>
+      </c>
+      <c r="CG20">
+        <f t="shared" si="7"/>
+        <v>55.018000000000001</v>
+      </c>
+      <c r="CH20">
+        <v>80</v>
+      </c>
+      <c r="CI20" s="3">
+        <v>41684.177025277779</v>
+      </c>
+      <c r="CJ20">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:88">
       <c r="A21" s="2">
         <v>51.014000000000003</v>
       </c>
@@ -4347,7 +4673,7 @@
         <v>85.042000000000002</v>
       </c>
       <c r="H21" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>54.042000000000002</v>
       </c>
       <c r="I21">
@@ -4395,7 +4721,7 @@
         <v>34.094999999999999</v>
       </c>
       <c r="AC21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>71.094999999999999</v>
       </c>
       <c r="AD21">
@@ -4506,7 +4832,7 @@
         <v>72.052999999999997</v>
       </c>
       <c r="BZ21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>26.052999999999997</v>
       </c>
       <c r="CA21">
@@ -4518,8 +4844,24 @@
       <c r="CC21">
         <v>78</v>
       </c>
-    </row>
-    <row r="22" spans="1:81">
+      <c r="CF21">
+        <v>32.125999999999998</v>
+      </c>
+      <c r="CG21">
+        <f t="shared" si="7"/>
+        <v>56.125999999999998</v>
+      </c>
+      <c r="CH21">
+        <v>81</v>
+      </c>
+      <c r="CI21" s="3">
+        <v>41684.177038090274</v>
+      </c>
+      <c r="CJ21">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:88">
       <c r="A22" s="2">
         <v>52.152000000000001</v>
       </c>
@@ -4536,7 +4878,7 @@
         <v>86.161000000000001</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>55.161000000000001</v>
       </c>
       <c r="I22">
@@ -4584,7 +4926,7 @@
         <v>35.139000000000003</v>
       </c>
       <c r="AC22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>72.13900000000001</v>
       </c>
       <c r="AD22">
@@ -4695,7 +5037,7 @@
         <v>73.13</v>
       </c>
       <c r="BZ22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>27.129999999999995</v>
       </c>
       <c r="CA22">
@@ -4707,8 +5049,24 @@
       <c r="CC22">
         <v>79</v>
       </c>
-    </row>
-    <row r="23" spans="1:81">
+      <c r="CF22">
+        <v>33.045999999999999</v>
+      </c>
+      <c r="CG22">
+        <f t="shared" si="7"/>
+        <v>57.045999999999999</v>
+      </c>
+      <c r="CH22">
+        <v>82</v>
+      </c>
+      <c r="CI22" s="3">
+        <v>41684.17705111111</v>
+      </c>
+      <c r="CJ22">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:88">
       <c r="A23" s="2">
         <v>53.024000000000001</v>
       </c>
@@ -4725,7 +5083,7 @@
         <v>87.123999999999995</v>
       </c>
       <c r="H23" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>56.123999999999995</v>
       </c>
       <c r="I23">
@@ -4773,7 +5131,7 @@
         <v>36.020000000000003</v>
       </c>
       <c r="AC23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>73.02000000000001</v>
       </c>
       <c r="AD23">
@@ -4884,7 +5242,7 @@
         <v>74.055000000000007</v>
       </c>
       <c r="BZ23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>28.055000000000007</v>
       </c>
       <c r="CA23">
@@ -4896,8 +5254,24 @@
       <c r="CC23">
         <v>80</v>
       </c>
-    </row>
-    <row r="24" spans="1:81">
+      <c r="CF23">
+        <v>35.134</v>
+      </c>
+      <c r="CG23">
+        <f t="shared" si="7"/>
+        <v>59.134</v>
+      </c>
+      <c r="CH23">
+        <v>83</v>
+      </c>
+      <c r="CI23" s="3">
+        <v>41684.177072407409</v>
+      </c>
+      <c r="CJ23">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:88">
       <c r="A24" s="2">
         <v>54.103999999999999</v>
       </c>
@@ -4914,7 +5288,7 @@
         <v>88.084999999999994</v>
       </c>
       <c r="H24" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>57.084999999999994</v>
       </c>
       <c r="I24">
@@ -4962,7 +5336,7 @@
         <v>37.085999999999999</v>
       </c>
       <c r="AC24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>74.085999999999999</v>
       </c>
       <c r="AD24">
@@ -5073,7 +5447,7 @@
         <v>75.105000000000004</v>
       </c>
       <c r="BZ24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>29.105000000000004</v>
       </c>
       <c r="CA24">
@@ -5085,8 +5459,24 @@
       <c r="CC24">
         <v>81</v>
       </c>
-    </row>
-    <row r="25" spans="1:81">
+      <c r="CF24">
+        <v>36.08</v>
+      </c>
+      <c r="CG24">
+        <f t="shared" si="7"/>
+        <v>60.08</v>
+      </c>
+      <c r="CH24">
+        <v>84</v>
+      </c>
+      <c r="CI24" s="3">
+        <v>41684.177085196759</v>
+      </c>
+      <c r="CJ24">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:88">
       <c r="A25" s="2">
         <v>55.024000000000001</v>
       </c>
@@ -5103,7 +5493,7 @@
         <v>89.009</v>
       </c>
       <c r="H25" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>58.009</v>
       </c>
       <c r="I25">
@@ -5151,7 +5541,7 @@
         <v>38.154000000000003</v>
       </c>
       <c r="AC25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>75.153999999999996</v>
       </c>
       <c r="AD25">
@@ -5262,7 +5652,7 @@
         <v>76.070999999999998</v>
       </c>
       <c r="BZ25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30.070999999999998</v>
       </c>
       <c r="CA25">
@@ -5274,8 +5664,24 @@
       <c r="CC25">
         <v>81</v>
       </c>
-    </row>
-    <row r="26" spans="1:81">
+      <c r="CF25">
+        <v>38.122999999999998</v>
+      </c>
+      <c r="CG25">
+        <f t="shared" si="7"/>
+        <v>62.122999999999998</v>
+      </c>
+      <c r="CH25">
+        <v>84</v>
+      </c>
+      <c r="CI25" s="3">
+        <v>41684.177106643518</v>
+      </c>
+      <c r="CJ25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:88">
       <c r="A26" s="2">
         <v>56.113</v>
       </c>
@@ -5292,7 +5698,7 @@
         <v>90.052999999999997</v>
       </c>
       <c r="H26" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>59.052999999999997</v>
       </c>
       <c r="I26">
@@ -5340,7 +5746,7 @@
         <v>39.04</v>
       </c>
       <c r="AC26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>76.039999999999992</v>
       </c>
       <c r="AD26">
@@ -5451,7 +5857,7 @@
         <v>77.028000000000006</v>
       </c>
       <c r="BZ26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.028000000000006</v>
       </c>
       <c r="CA26">
@@ -5463,8 +5869,24 @@
       <c r="CC26">
         <v>81</v>
       </c>
-    </row>
-    <row r="27" spans="1:81">
+      <c r="CF26">
+        <v>39.098999999999997</v>
+      </c>
+      <c r="CG26">
+        <f t="shared" si="7"/>
+        <v>63.098999999999997</v>
+      </c>
+      <c r="CH26">
+        <v>85</v>
+      </c>
+      <c r="CI26" s="3">
+        <v>41684.177119456021</v>
+      </c>
+      <c r="CJ26">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:88">
       <c r="A27" s="2">
         <v>57.000999999999998</v>
       </c>
@@ -5481,7 +5903,7 @@
         <v>91.01</v>
       </c>
       <c r="H27" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>60.010000000000005</v>
       </c>
       <c r="I27">
@@ -5529,7 +5951,7 @@
         <v>40.119</v>
       </c>
       <c r="AC27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>77.119</v>
       </c>
       <c r="AD27">
@@ -5640,7 +6062,7 @@
         <v>78.126000000000005</v>
       </c>
       <c r="BZ27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>32.126000000000005</v>
       </c>
       <c r="CA27">
@@ -5652,8 +6074,24 @@
       <c r="CC27">
         <v>81</v>
       </c>
-    </row>
-    <row r="28" spans="1:81">
+      <c r="CF27">
+        <v>40.002000000000002</v>
+      </c>
+      <c r="CG27">
+        <f t="shared" si="7"/>
+        <v>64.00200000000001</v>
+      </c>
+      <c r="CH27">
+        <v>84</v>
+      </c>
+      <c r="CI27" s="3">
+        <v>41684.177132303237</v>
+      </c>
+      <c r="CJ27">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:88">
       <c r="A28" s="2">
         <v>58.061</v>
       </c>
@@ -5670,7 +6108,7 @@
         <v>92.081000000000003</v>
       </c>
       <c r="H28" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>61.081000000000003</v>
       </c>
       <c r="I28">
@@ -5718,7 +6156,7 @@
         <v>41.037999999999997</v>
       </c>
       <c r="AC28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>78.037999999999997</v>
       </c>
       <c r="AD28">
@@ -5829,7 +6267,7 @@
         <v>79.108000000000004</v>
       </c>
       <c r="BZ28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>33.108000000000004</v>
       </c>
       <c r="CA28">
@@ -5841,8 +6279,24 @@
       <c r="CC28">
         <v>81</v>
       </c>
-    </row>
-    <row r="29" spans="1:81">
+      <c r="CF28">
+        <v>41.052999999999997</v>
+      </c>
+      <c r="CG28">
+        <f t="shared" si="7"/>
+        <v>65.052999999999997</v>
+      </c>
+      <c r="CH28">
+        <v>83</v>
+      </c>
+      <c r="CI28" s="3">
+        <v>41684.177140868058</v>
+      </c>
+      <c r="CJ28">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:88">
       <c r="A29" s="2">
         <v>59.103999999999999</v>
       </c>
@@ -5859,7 +6313,7 @@
         <v>93.06</v>
       </c>
       <c r="H29" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>62.06</v>
       </c>
       <c r="I29">
@@ -5907,7 +6361,7 @@
         <v>42.091999999999999</v>
       </c>
       <c r="AC29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>79.091999999999999</v>
       </c>
       <c r="AD29">
@@ -6018,7 +6472,7 @@
         <v>80.153999999999996</v>
       </c>
       <c r="BZ29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>34.153999999999996</v>
       </c>
       <c r="CA29">
@@ -6030,8 +6484,24 @@
       <c r="CC29">
         <v>81</v>
       </c>
-    </row>
-    <row r="30" spans="1:81">
+      <c r="CF29">
+        <v>42.015000000000001</v>
+      </c>
+      <c r="CG29">
+        <f t="shared" si="7"/>
+        <v>66.015000000000001</v>
+      </c>
+      <c r="CH29">
+        <v>81</v>
+      </c>
+      <c r="CI29" s="3">
+        <v>41684.177153715274</v>
+      </c>
+      <c r="CJ29">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:88">
       <c r="A30" s="2">
         <v>60.021000000000001</v>
       </c>
@@ -6048,7 +6518,7 @@
         <v>94.149000000000001</v>
       </c>
       <c r="H30" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>63.149000000000001</v>
       </c>
       <c r="I30">
@@ -6096,7 +6566,7 @@
         <v>43.103000000000002</v>
       </c>
       <c r="AC30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>80.103000000000009</v>
       </c>
       <c r="AD30">
@@ -6207,7 +6677,7 @@
         <v>81.100999999999999</v>
       </c>
       <c r="BZ30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>35.100999999999999</v>
       </c>
       <c r="CA30">
@@ -6219,8 +6689,24 @@
       <c r="CC30">
         <v>81</v>
       </c>
-    </row>
-    <row r="31" spans="1:81">
+      <c r="CF30">
+        <v>43.137</v>
+      </c>
+      <c r="CG30">
+        <f t="shared" si="7"/>
+        <v>67.137</v>
+      </c>
+      <c r="CH30">
+        <v>80</v>
+      </c>
+      <c r="CI30" s="3">
+        <v>41684.177166562498</v>
+      </c>
+      <c r="CJ30">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:88">
       <c r="A31" s="2">
         <v>61.064999999999998</v>
       </c>
@@ -6237,7 +6723,7 @@
         <v>95.102000000000004</v>
       </c>
       <c r="H31" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>64.102000000000004</v>
       </c>
       <c r="I31">
@@ -6285,7 +6771,7 @@
         <v>45.112000000000002</v>
       </c>
       <c r="AC31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>82.111999999999995</v>
       </c>
       <c r="AD31">
@@ -6396,7 +6882,7 @@
         <v>82.001000000000005</v>
       </c>
       <c r="BZ31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>36.001000000000005</v>
       </c>
       <c r="CA31">
@@ -6408,8 +6894,24 @@
       <c r="CC31">
         <v>81</v>
       </c>
-    </row>
-    <row r="32" spans="1:81">
+      <c r="CF31">
+        <v>44.112000000000002</v>
+      </c>
+      <c r="CG31">
+        <f t="shared" si="7"/>
+        <v>68.111999999999995</v>
+      </c>
+      <c r="CH31">
+        <v>79</v>
+      </c>
+      <c r="CI31" s="3">
+        <v>41684.177175127312</v>
+      </c>
+      <c r="CJ31">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:88">
       <c r="A32" s="2">
         <v>62.110999999999997</v>
       </c>
@@ -6426,7 +6928,7 @@
         <v>96.037000000000006</v>
       </c>
       <c r="H32" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>65.037000000000006</v>
       </c>
       <c r="I32">
@@ -6474,7 +6976,7 @@
         <v>46.006</v>
       </c>
       <c r="AC32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>83.006</v>
       </c>
       <c r="AD32">
@@ -6585,7 +7087,7 @@
         <v>83.091999999999999</v>
       </c>
       <c r="BZ32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>37.091999999999999</v>
       </c>
       <c r="CA32">
@@ -6597,8 +7099,24 @@
       <c r="CC32">
         <v>81</v>
       </c>
-    </row>
-    <row r="33" spans="1:81">
+      <c r="CF32">
+        <v>45.058</v>
+      </c>
+      <c r="CG32">
+        <f t="shared" si="7"/>
+        <v>69.057999999999993</v>
+      </c>
+      <c r="CH32">
+        <v>78</v>
+      </c>
+      <c r="CI32" s="3">
+        <v>41684.177187974536</v>
+      </c>
+      <c r="CJ32">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:88">
       <c r="A33" s="2">
         <v>63.152999999999999</v>
       </c>
@@ -6615,7 +7133,7 @@
         <v>97.01</v>
       </c>
       <c r="H33" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>66.010000000000005</v>
       </c>
       <c r="I33">
@@ -6663,7 +7181,7 @@
         <v>47.113999999999997</v>
       </c>
       <c r="AC33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>84.114000000000004</v>
       </c>
       <c r="AD33">
@@ -6774,7 +7292,7 @@
         <v>84.085999999999999</v>
       </c>
       <c r="BZ33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>38.085999999999999</v>
       </c>
       <c r="CA33">
@@ -6786,8 +7304,24 @@
       <c r="CC33">
         <v>81</v>
       </c>
-    </row>
-    <row r="34" spans="1:81">
+      <c r="CF33">
+        <v>46.009</v>
+      </c>
+      <c r="CG33">
+        <f t="shared" si="7"/>
+        <v>70.009</v>
+      </c>
+      <c r="CH33">
+        <v>77</v>
+      </c>
+      <c r="CI33" s="3">
+        <v>41684.177200821759</v>
+      </c>
+      <c r="CJ33">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:88">
       <c r="A34" s="2">
         <v>64.069000000000003</v>
       </c>
@@ -6804,7 +7338,7 @@
         <v>98.126999999999995</v>
       </c>
       <c r="H34" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>67.126999999999995</v>
       </c>
       <c r="I34">
@@ -6852,7 +7386,7 @@
         <v>48.02</v>
       </c>
       <c r="AC34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>85.02000000000001</v>
       </c>
       <c r="AD34">
@@ -6963,7 +7497,7 @@
         <v>85.049000000000007</v>
       </c>
       <c r="BZ34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>39.049000000000007</v>
       </c>
       <c r="CA34">
@@ -6975,8 +7509,24 @@
       <c r="CC34">
         <v>80</v>
       </c>
-    </row>
-    <row r="35" spans="1:81">
+      <c r="CF34">
+        <v>47.12</v>
+      </c>
+      <c r="CG34">
+        <f t="shared" si="7"/>
+        <v>71.12</v>
+      </c>
+      <c r="CH34">
+        <v>76</v>
+      </c>
+      <c r="CI34" s="3">
+        <v>41684.177213668983</v>
+      </c>
+      <c r="CJ34">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:88">
       <c r="A35" s="2">
         <v>65.001999999999995</v>
       </c>
@@ -6993,7 +7543,7 @@
         <v>99.072000000000003</v>
       </c>
       <c r="H35" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>68.072000000000003</v>
       </c>
       <c r="I35">
@@ -7041,7 +7591,7 @@
         <v>49.109000000000002</v>
       </c>
       <c r="AC35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>86.109000000000009</v>
       </c>
       <c r="AD35">
@@ -7152,7 +7702,7 @@
         <v>86.135000000000005</v>
       </c>
       <c r="BZ35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>40.135000000000005</v>
       </c>
       <c r="CA35">
@@ -7164,8 +7714,24 @@
       <c r="CC35">
         <v>80</v>
       </c>
-    </row>
-    <row r="36" spans="1:81">
+      <c r="CF35">
+        <v>48.064</v>
+      </c>
+      <c r="CG35">
+        <f t="shared" si="7"/>
+        <v>72.063999999999993</v>
+      </c>
+      <c r="CH35">
+        <v>75</v>
+      </c>
+      <c r="CI35" s="3">
+        <v>41684.177222233797</v>
+      </c>
+      <c r="CJ35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:88">
       <c r="A36" s="2">
         <v>66.061000000000007</v>
       </c>
@@ -7182,7 +7748,7 @@
         <v>100.11</v>
       </c>
       <c r="H36" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>69.11</v>
       </c>
       <c r="I36">
@@ -7230,7 +7796,7 @@
         <v>50.027999999999999</v>
       </c>
       <c r="AC36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>87.027999999999992</v>
       </c>
       <c r="AD36">
@@ -7341,7 +7907,7 @@
         <v>87.081000000000003</v>
       </c>
       <c r="BZ36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>41.081000000000003</v>
       </c>
       <c r="CA36">
@@ -7353,8 +7919,24 @@
       <c r="CC36">
         <v>80</v>
       </c>
-    </row>
-    <row r="37" spans="1:81">
+      <c r="CF36">
+        <v>49.003999999999998</v>
+      </c>
+      <c r="CG36">
+        <f t="shared" si="7"/>
+        <v>73.003999999999991</v>
+      </c>
+      <c r="CH36">
+        <v>74</v>
+      </c>
+      <c r="CI36" s="3">
+        <v>41684.177235081021</v>
+      </c>
+      <c r="CJ36">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:88">
       <c r="A37" s="2">
         <v>67.134</v>
       </c>
@@ -7371,7 +7953,7 @@
         <v>101.08</v>
       </c>
       <c r="H37" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>70.08</v>
       </c>
       <c r="I37">
@@ -7419,7 +8001,7 @@
         <v>51.104999999999997</v>
       </c>
       <c r="AC37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>88.10499999999999</v>
       </c>
       <c r="AD37">
@@ -7530,7 +8112,7 @@
         <v>88.046999999999997</v>
       </c>
       <c r="BZ37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>42.046999999999997</v>
       </c>
       <c r="CA37">
@@ -7542,8 +8124,24 @@
       <c r="CC37">
         <v>80</v>
       </c>
-    </row>
-    <row r="38" spans="1:81">
+      <c r="CF37">
+        <v>50.134</v>
+      </c>
+      <c r="CG37">
+        <f t="shared" si="7"/>
+        <v>74.134</v>
+      </c>
+      <c r="CH37">
+        <v>72</v>
+      </c>
+      <c r="CI37" s="3">
+        <v>41684.177247939813</v>
+      </c>
+      <c r="CJ37">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:88">
       <c r="A38" s="2">
         <v>68.037999999999997</v>
       </c>
@@ -7560,7 +8158,7 @@
         <v>102.03</v>
       </c>
       <c r="H38" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>71.03</v>
       </c>
       <c r="I38">
@@ -7608,7 +8206,7 @@
         <v>52.024999999999999</v>
       </c>
       <c r="AC38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>89.025000000000006</v>
       </c>
       <c r="AD38">
@@ -7719,7 +8317,7 @@
         <v>89.123000000000005</v>
       </c>
       <c r="BZ38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43.123000000000005</v>
       </c>
       <c r="CA38">
@@ -7731,8 +8329,24 @@
       <c r="CC38">
         <v>81</v>
       </c>
-    </row>
-    <row r="39" spans="1:81">
+      <c r="CF38">
+        <v>51.082000000000001</v>
+      </c>
+      <c r="CG38">
+        <f t="shared" si="7"/>
+        <v>75.081999999999994</v>
+      </c>
+      <c r="CH38">
+        <v>71</v>
+      </c>
+      <c r="CI38" s="3">
+        <v>41684.177256493058</v>
+      </c>
+      <c r="CJ38">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:88">
       <c r="A39" s="2">
         <v>69.129000000000005</v>
       </c>
@@ -7749,7 +8363,7 @@
         <v>103.12</v>
       </c>
       <c r="H39" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>72.12</v>
       </c>
       <c r="I39">
@@ -7797,7 +8411,7 @@
         <v>53.124000000000002</v>
       </c>
       <c r="AC39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>90.123999999999995</v>
       </c>
       <c r="AD39">
@@ -7908,7 +8522,7 @@
         <v>90.052000000000007</v>
       </c>
       <c r="BZ39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>44.052000000000007</v>
       </c>
       <c r="CA39">
@@ -7920,8 +8534,24 @@
       <c r="CC39">
         <v>81</v>
       </c>
-    </row>
-    <row r="40" spans="1:81">
+      <c r="CF39">
+        <v>52.029000000000003</v>
+      </c>
+      <c r="CG39">
+        <f t="shared" si="7"/>
+        <v>76.028999999999996</v>
+      </c>
+      <c r="CH39">
+        <v>70</v>
+      </c>
+      <c r="CI39" s="3">
+        <v>41684.177269340275</v>
+      </c>
+      <c r="CJ39">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:88">
       <c r="A40" s="2">
         <v>70.06</v>
       </c>
@@ -7938,7 +8568,7 @@
         <v>104.02</v>
       </c>
       <c r="H40" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>73.02</v>
       </c>
       <c r="I40">
@@ -7986,7 +8616,7 @@
         <v>54.036000000000001</v>
       </c>
       <c r="AC40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>91.036000000000001</v>
       </c>
       <c r="AD40">
@@ -8097,7 +8727,7 @@
         <v>91.15</v>
       </c>
       <c r="BZ40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45.150000000000006</v>
       </c>
       <c r="CA40">
@@ -8109,8 +8739,24 @@
       <c r="CC40">
         <v>80</v>
       </c>
-    </row>
-    <row r="41" spans="1:81">
+      <c r="CF40">
+        <v>53.124000000000002</v>
+      </c>
+      <c r="CG40">
+        <f t="shared" si="7"/>
+        <v>77.123999999999995</v>
+      </c>
+      <c r="CH40">
+        <v>69</v>
+      </c>
+      <c r="CI40" s="3">
+        <v>41684.177282199074</v>
+      </c>
+      <c r="CJ40">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:88">
       <c r="A41" s="2">
         <v>71.153999999999996</v>
       </c>
@@ -8127,7 +8773,7 @@
         <v>105.01</v>
       </c>
       <c r="H41" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>74.010000000000005</v>
       </c>
       <c r="I41">
@@ -8175,7 +8821,7 @@
         <v>55.143999999999998</v>
       </c>
       <c r="AC41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>92.144000000000005</v>
       </c>
       <c r="AD41">
@@ -8286,7 +8932,7 @@
         <v>92.046999999999997</v>
       </c>
       <c r="BZ41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>46.046999999999997</v>
       </c>
       <c r="CA41">
@@ -8298,8 +8944,24 @@
       <c r="CC41">
         <v>80</v>
       </c>
-    </row>
-    <row r="42" spans="1:81">
+      <c r="CF41">
+        <v>54.064</v>
+      </c>
+      <c r="CG41">
+        <f t="shared" si="7"/>
+        <v>78.063999999999993</v>
+      </c>
+      <c r="CH41">
+        <v>68</v>
+      </c>
+      <c r="CI41" s="3">
+        <v>41684.177290752312</v>
+      </c>
+      <c r="CJ41">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:88">
       <c r="A42" s="2">
         <v>72.067999999999998</v>
       </c>
@@ -8316,7 +8978,7 @@
         <v>107.12</v>
       </c>
       <c r="H42" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>76.12</v>
       </c>
       <c r="I42">
@@ -8364,7 +9026,7 @@
         <v>56.078000000000003</v>
       </c>
       <c r="AC42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>93.078000000000003</v>
       </c>
       <c r="AD42">
@@ -8475,7 +9137,7 @@
         <v>93.004000000000005</v>
       </c>
       <c r="BZ42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>47.004000000000005</v>
       </c>
       <c r="CA42">
@@ -8487,8 +9149,24 @@
       <c r="CC42">
         <v>79</v>
       </c>
-    </row>
-    <row r="43" spans="1:81">
+      <c r="CF42">
+        <v>55.03</v>
+      </c>
+      <c r="CG42">
+        <f t="shared" si="7"/>
+        <v>79.03</v>
+      </c>
+      <c r="CH42">
+        <v>67</v>
+      </c>
+      <c r="CI42" s="3">
+        <v>41684.177303599536</v>
+      </c>
+      <c r="CJ42">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:88">
       <c r="A43" s="2">
         <v>73.143000000000001</v>
       </c>
@@ -8505,7 +9183,7 @@
         <v>108.08</v>
       </c>
       <c r="H43" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>77.08</v>
       </c>
       <c r="I43">
@@ -8553,7 +9231,7 @@
         <v>57.113</v>
       </c>
       <c r="AC43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>94.113</v>
       </c>
       <c r="AD43">
@@ -8664,7 +9342,7 @@
         <v>94.057000000000002</v>
       </c>
       <c r="BZ43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>48.057000000000002</v>
       </c>
       <c r="CA43">
@@ -8676,8 +9354,24 @@
       <c r="CC43">
         <v>79</v>
       </c>
-    </row>
-    <row r="44" spans="1:81">
+      <c r="CF43">
+        <v>56.006</v>
+      </c>
+      <c r="CG43">
+        <f t="shared" si="7"/>
+        <v>80.006</v>
+      </c>
+      <c r="CH43">
+        <v>66</v>
+      </c>
+      <c r="CI43" s="3">
+        <v>41684.17731644676</v>
+      </c>
+      <c r="CJ43">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:88">
       <c r="A44" s="2">
         <v>74.117999999999995</v>
       </c>
@@ -8694,7 +9388,7 @@
         <v>109.04</v>
       </c>
       <c r="H44" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>78.040000000000006</v>
       </c>
       <c r="I44">
@@ -8742,7 +9436,7 @@
         <v>58.01</v>
       </c>
       <c r="AC44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>95.009999999999991</v>
       </c>
       <c r="AD44">
@@ -8853,7 +9547,7 @@
         <v>95.001000000000005</v>
       </c>
       <c r="BZ44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>49.001000000000005</v>
       </c>
       <c r="CA44">
@@ -8865,8 +9559,24 @@
       <c r="CC44">
         <v>78</v>
       </c>
-    </row>
-    <row r="45" spans="1:81">
+      <c r="CF44">
+        <v>57.103000000000002</v>
+      </c>
+      <c r="CG44">
+        <f t="shared" si="7"/>
+        <v>81.103000000000009</v>
+      </c>
+      <c r="CH44">
+        <v>65</v>
+      </c>
+      <c r="CI44" s="3">
+        <v>41684.177329398146</v>
+      </c>
+      <c r="CJ44">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:88">
       <c r="A45" s="2">
         <v>76.152000000000001</v>
       </c>
@@ -8883,7 +9593,7 @@
         <v>110.15</v>
       </c>
       <c r="H45" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>79.150000000000006</v>
       </c>
       <c r="I45">
@@ -8931,7 +9641,7 @@
         <v>59.107999999999997</v>
       </c>
       <c r="AC45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>96.108000000000004</v>
       </c>
       <c r="AD45">
@@ -9042,7 +9752,7 @@
         <v>96.13</v>
       </c>
       <c r="BZ45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>50.129999999999995</v>
       </c>
       <c r="CA45">
@@ -9054,8 +9764,24 @@
       <c r="CC45">
         <v>78</v>
       </c>
-    </row>
-    <row r="46" spans="1:81">
+      <c r="CF45">
+        <v>58.026000000000003</v>
+      </c>
+      <c r="CG45">
+        <f t="shared" si="7"/>
+        <v>82.02600000000001</v>
+      </c>
+      <c r="CH45">
+        <v>64</v>
+      </c>
+      <c r="CI45" s="3">
+        <v>41684.177337858797</v>
+      </c>
+      <c r="CJ45">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:88">
       <c r="A46" s="2">
         <v>77.040000000000006</v>
       </c>
@@ -9072,7 +9798,7 @@
         <v>111.11</v>
       </c>
       <c r="H46" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>80.11</v>
       </c>
       <c r="I46">
@@ -9120,7 +9846,7 @@
         <v>60.018999999999998</v>
       </c>
       <c r="AC46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>97.019000000000005</v>
       </c>
       <c r="AD46">
@@ -9231,7 +9957,7 @@
         <v>97.093000000000004</v>
       </c>
       <c r="BZ46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>51.093000000000004</v>
       </c>
       <c r="CA46">
@@ -9243,8 +9969,24 @@
       <c r="CC46">
         <v>78</v>
       </c>
-    </row>
-    <row r="47" spans="1:81">
+      <c r="CF46">
+        <v>59.124000000000002</v>
+      </c>
+      <c r="CG46">
+        <f t="shared" si="7"/>
+        <v>83.123999999999995</v>
+      </c>
+      <c r="CH46">
+        <v>65</v>
+      </c>
+      <c r="CI46" s="3">
+        <v>41684.177350717589</v>
+      </c>
+      <c r="CJ46">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:88">
       <c r="A47" s="2">
         <v>78.052999999999997</v>
       </c>
@@ -9261,7 +10003,7 @@
         <v>112.06</v>
       </c>
       <c r="H47" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>81.06</v>
       </c>
       <c r="I47">
@@ -9309,7 +10051,7 @@
         <v>61.1</v>
       </c>
       <c r="AC47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>98.1</v>
       </c>
       <c r="AD47">
@@ -9420,7 +10162,7 @@
         <v>98.034000000000006</v>
       </c>
       <c r="BZ47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>52.034000000000006</v>
       </c>
       <c r="CA47">
@@ -9432,8 +10174,24 @@
       <c r="CC47">
         <v>78</v>
       </c>
-    </row>
-    <row r="48" spans="1:81">
+      <c r="CF47">
+        <v>60.055999999999997</v>
+      </c>
+      <c r="CG47">
+        <f t="shared" si="7"/>
+        <v>84.055999999999997</v>
+      </c>
+      <c r="CH47">
+        <v>64</v>
+      </c>
+      <c r="CI47" s="3">
+        <v>41684.177363634262</v>
+      </c>
+      <c r="CJ47">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:88">
       <c r="A48" s="2">
         <v>79.084000000000003</v>
       </c>
@@ -9450,7 +10208,7 @@
         <v>113.14</v>
       </c>
       <c r="H48" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>82.14</v>
       </c>
       <c r="I48">
@@ -9498,7 +10256,7 @@
         <v>62.006</v>
       </c>
       <c r="AC48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>99.006</v>
       </c>
       <c r="AD48">
@@ -9609,7 +10367,7 @@
         <v>99.131</v>
       </c>
       <c r="BZ48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>53.131</v>
       </c>
       <c r="CA48">
@@ -9621,8 +10379,24 @@
       <c r="CC48">
         <v>78</v>
       </c>
-    </row>
-    <row r="49" spans="1:81">
+      <c r="CF48">
+        <v>61.118000000000002</v>
+      </c>
+      <c r="CG48">
+        <f t="shared" si="7"/>
+        <v>85.117999999999995</v>
+      </c>
+      <c r="CH48">
+        <v>63</v>
+      </c>
+      <c r="CI48" s="3">
+        <v>41684.177372118058</v>
+      </c>
+      <c r="CJ48">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:88">
       <c r="A49" s="2">
         <v>80.001999999999995</v>
       </c>
@@ -9639,7 +10413,7 @@
         <v>114.11</v>
       </c>
       <c r="H49" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>83.11</v>
       </c>
       <c r="I49">
@@ -9687,7 +10461,7 @@
         <v>63.116</v>
       </c>
       <c r="AC49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>100.116</v>
       </c>
       <c r="AD49">
@@ -9798,7 +10572,7 @@
         <v>100.12</v>
       </c>
       <c r="BZ49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54.120000000000005</v>
       </c>
       <c r="CA49">
@@ -9810,8 +10584,24 @@
       <c r="CC49">
         <v>77</v>
       </c>
-    </row>
-    <row r="50" spans="1:81">
+      <c r="CF49">
+        <v>62.076999999999998</v>
+      </c>
+      <c r="CG49">
+        <f t="shared" si="7"/>
+        <v>86.076999999999998</v>
+      </c>
+      <c r="CH49">
+        <v>64</v>
+      </c>
+      <c r="CI49" s="3">
+        <v>41684.177384976851</v>
+      </c>
+      <c r="CJ49">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:88">
       <c r="A50" s="2">
         <v>81.135000000000005</v>
       </c>
@@ -9828,7 +10618,7 @@
         <v>115.04</v>
       </c>
       <c r="H50" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>84.04</v>
       </c>
       <c r="I50">
@@ -9844,7 +10634,7 @@
         <v>66.022999999999996</v>
       </c>
       <c r="O50">
-        <f t="shared" ref="O50:O111" si="10">N50+26</f>
+        <f t="shared" ref="O50:O111" si="11">N50+26</f>
         <v>92.022999999999996</v>
       </c>
       <c r="P50">
@@ -9876,7 +10666,7 @@
         <v>64.087999999999994</v>
       </c>
       <c r="AC50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>101.08799999999999</v>
       </c>
       <c r="AD50">
@@ -9987,7 +10777,7 @@
         <v>101.05</v>
       </c>
       <c r="BZ50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>55.05</v>
       </c>
       <c r="CA50">
@@ -9999,8 +10789,24 @@
       <c r="CC50">
         <v>77</v>
       </c>
-    </row>
-    <row r="51" spans="1:81">
+      <c r="CF50">
+        <v>63.006</v>
+      </c>
+      <c r="CG50">
+        <f t="shared" si="7"/>
+        <v>87.006</v>
+      </c>
+      <c r="CH50">
+        <v>65</v>
+      </c>
+      <c r="CI50" s="3">
+        <v>41684.177397824074</v>
+      </c>
+      <c r="CJ50">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:88">
       <c r="A51" s="2">
         <v>82.022999999999996</v>
       </c>
@@ -10017,7 +10823,7 @@
         <v>117.04</v>
       </c>
       <c r="H51" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>86.04</v>
       </c>
       <c r="I51">
@@ -10033,7 +10839,7 @@
         <v>67.113</v>
       </c>
       <c r="O51">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>93.113</v>
       </c>
       <c r="P51">
@@ -10065,7 +10871,7 @@
         <v>65.025000000000006</v>
       </c>
       <c r="AC51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>102.02500000000001</v>
       </c>
       <c r="AD51">
@@ -10176,7 +10982,7 @@
         <v>102.01</v>
       </c>
       <c r="BZ51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>56.010000000000005</v>
       </c>
       <c r="CA51">
@@ -10188,8 +10994,24 @@
       <c r="CC51">
         <v>76</v>
       </c>
-    </row>
-    <row r="52" spans="1:81">
+      <c r="CF51">
+        <v>64.114000000000004</v>
+      </c>
+      <c r="CG51">
+        <f t="shared" si="7"/>
+        <v>88.114000000000004</v>
+      </c>
+      <c r="CH51">
+        <v>66</v>
+      </c>
+      <c r="CI51" s="3">
+        <v>41684.177406388888</v>
+      </c>
+      <c r="CJ51">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:88">
       <c r="A52" s="2">
         <v>83.1</v>
       </c>
@@ -10206,7 +11028,7 @@
         <v>118.14</v>
       </c>
       <c r="H52" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>87.14</v>
       </c>
       <c r="I52">
@@ -10222,7 +11044,7 @@
         <v>68.043999999999997</v>
       </c>
       <c r="O52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>94.043999999999997</v>
       </c>
       <c r="P52">
@@ -10254,7 +11076,7 @@
         <v>66.093999999999994</v>
       </c>
       <c r="AC52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>103.09399999999999</v>
       </c>
       <c r="AD52">
@@ -10365,7 +11187,7 @@
         <v>103.06</v>
       </c>
       <c r="BZ52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>57.06</v>
       </c>
       <c r="CA52">
@@ -10377,8 +11199,24 @@
       <c r="CC52">
         <v>75</v>
       </c>
-    </row>
-    <row r="53" spans="1:81">
+      <c r="CF52">
+        <v>65.075000000000003</v>
+      </c>
+      <c r="CG52">
+        <f t="shared" si="7"/>
+        <v>89.075000000000003</v>
+      </c>
+      <c r="CH52">
+        <v>66</v>
+      </c>
+      <c r="CI52" s="3">
+        <v>41684.177419224536</v>
+      </c>
+      <c r="CJ52">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:88">
       <c r="A53" s="2">
         <v>84.003</v>
       </c>
@@ -10395,7 +11233,7 @@
         <v>119.13</v>
       </c>
       <c r="H53" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>88.13</v>
       </c>
       <c r="I53">
@@ -10411,7 +11249,7 @@
         <v>69.078999999999994</v>
       </c>
       <c r="O53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>95.078999999999994</v>
       </c>
       <c r="P53">
@@ -10443,7 +11281,7 @@
         <v>67.126000000000005</v>
       </c>
       <c r="AC53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>104.126</v>
       </c>
       <c r="AD53">
@@ -10554,7 +11392,7 @@
         <v>104.03</v>
       </c>
       <c r="BZ53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>58.03</v>
       </c>
       <c r="CA53">
@@ -10566,8 +11404,24 @@
       <c r="CC53">
         <v>74</v>
       </c>
-    </row>
-    <row r="54" spans="1:81">
+      <c r="CF53">
+        <v>66.012</v>
+      </c>
+      <c r="CG53">
+        <f t="shared" si="7"/>
+        <v>90.012</v>
+      </c>
+      <c r="CH53">
+        <v>67</v>
+      </c>
+      <c r="CI53" s="3">
+        <v>41684.17743207176</v>
+      </c>
+      <c r="CJ53">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:88">
       <c r="A54" s="2">
         <v>86.01</v>
       </c>
@@ -10584,7 +11438,7 @@
         <v>120.1</v>
       </c>
       <c r="H54" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>89.1</v>
       </c>
       <c r="I54">
@@ -10600,7 +11454,7 @@
         <v>70.126999999999995</v>
       </c>
       <c r="O54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>96.126999999999995</v>
       </c>
       <c r="P54">
@@ -10632,7 +11486,7 @@
         <v>68.040000000000006</v>
       </c>
       <c r="AC54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>105.04</v>
       </c>
       <c r="AD54">
@@ -10728,7 +11582,7 @@
         <v>105.08</v>
       </c>
       <c r="BZ54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>59.08</v>
       </c>
       <c r="CA54">
@@ -10740,8 +11594,24 @@
       <c r="CC54">
         <v>72</v>
       </c>
-    </row>
-    <row r="55" spans="1:81">
+      <c r="CF54">
+        <v>67.113</v>
+      </c>
+      <c r="CG54">
+        <f t="shared" si="7"/>
+        <v>91.113</v>
+      </c>
+      <c r="CH54">
+        <v>69</v>
+      </c>
+      <c r="CI54" s="3">
+        <v>41684.177444930552</v>
+      </c>
+      <c r="CJ54">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:88">
       <c r="A55" s="2">
         <v>87.040999999999997</v>
       </c>
@@ -10758,7 +11628,7 @@
         <v>121.07</v>
       </c>
       <c r="H55" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>90.07</v>
       </c>
       <c r="I55">
@@ -10774,7 +11644,7 @@
         <v>71.058000000000007</v>
       </c>
       <c r="O55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>97.058000000000007</v>
       </c>
       <c r="P55">
@@ -10806,7 +11676,7 @@
         <v>69.12</v>
       </c>
       <c r="AC55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>106.12</v>
       </c>
       <c r="AD55">
@@ -10902,7 +11772,7 @@
         <v>106.08</v>
       </c>
       <c r="BZ55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>60.08</v>
       </c>
       <c r="CA55">
@@ -10914,8 +11784,24 @@
       <c r="CC55">
         <v>71</v>
       </c>
-    </row>
-    <row r="56" spans="1:81">
+      <c r="CF55">
+        <v>68.057000000000002</v>
+      </c>
+      <c r="CG55">
+        <f t="shared" si="7"/>
+        <v>92.057000000000002</v>
+      </c>
+      <c r="CH55">
+        <v>70</v>
+      </c>
+      <c r="CI55" s="3">
+        <v>41684.177453495373</v>
+      </c>
+      <c r="CJ55">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:88">
       <c r="A56" s="2">
         <v>88.143000000000001</v>
       </c>
@@ -10932,7 +11818,7 @@
         <v>122.13</v>
       </c>
       <c r="H56" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>91.13</v>
       </c>
       <c r="I56">
@@ -10948,7 +11834,7 @@
         <v>72.009</v>
       </c>
       <c r="O56">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>98.009</v>
       </c>
       <c r="P56">
@@ -10980,7 +11866,7 @@
         <v>70.055999999999997</v>
       </c>
       <c r="AC56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>107.056</v>
       </c>
       <c r="AD56">
@@ -11076,7 +11962,7 @@
         <v>107.03</v>
       </c>
       <c r="BZ56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>61.03</v>
       </c>
       <c r="CA56">
@@ -11088,8 +11974,24 @@
       <c r="CC56">
         <v>70</v>
       </c>
-    </row>
-    <row r="57" spans="1:81">
+      <c r="CF56">
+        <v>69.02</v>
+      </c>
+      <c r="CG56">
+        <f t="shared" si="7"/>
+        <v>93.02</v>
+      </c>
+      <c r="CH56">
+        <v>71</v>
+      </c>
+      <c r="CI56" s="3">
+        <v>41684.177466342589</v>
+      </c>
+      <c r="CJ56">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:88">
       <c r="A57" s="2">
         <v>89.075000000000003</v>
       </c>
@@ -11106,7 +12008,7 @@
         <v>123.03</v>
       </c>
       <c r="H57" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>92.03</v>
       </c>
       <c r="I57">
@@ -11122,7 +12024,7 @@
         <v>73.114999999999995</v>
       </c>
       <c r="O57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>99.114999999999995</v>
       </c>
       <c r="P57">
@@ -11154,7 +12056,7 @@
         <v>71.123999999999995</v>
       </c>
       <c r="AC57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>108.124</v>
       </c>
       <c r="AD57">
@@ -11202,7 +12104,7 @@
         <v>76.076999999999998</v>
       </c>
       <c r="AX57">
-        <f t="shared" ref="AX57:AX99" si="11">AW57-3</f>
+        <f t="shared" ref="AX57:AX99" si="12">AW57-3</f>
         <v>73.076999999999998</v>
       </c>
       <c r="AY57">
@@ -11250,7 +12152,7 @@
         <v>108.1</v>
       </c>
       <c r="BZ57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>62.099999999999994</v>
       </c>
       <c r="CA57">
@@ -11262,8 +12164,24 @@
       <c r="CC57">
         <v>70</v>
       </c>
-    </row>
-    <row r="58" spans="1:81">
+      <c r="CF57">
+        <v>70.09</v>
+      </c>
+      <c r="CG57">
+        <f t="shared" si="7"/>
+        <v>94.09</v>
+      </c>
+      <c r="CH57">
+        <v>71</v>
+      </c>
+      <c r="CI57" s="3">
+        <v>41684.177479189813</v>
+      </c>
+      <c r="CJ57">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:88">
       <c r="A58" s="2">
         <v>90.007000000000005</v>
       </c>
@@ -11280,7 +12198,7 @@
         <v>124.14</v>
       </c>
       <c r="H58" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>93.14</v>
       </c>
       <c r="I58">
@@ -11296,7 +12214,7 @@
         <v>74.063999999999993</v>
       </c>
       <c r="O58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>100.06399999999999</v>
       </c>
       <c r="P58">
@@ -11328,7 +12246,7 @@
         <v>72.066000000000003</v>
       </c>
       <c r="AC58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>109.066</v>
       </c>
       <c r="AD58">
@@ -11376,7 +12294,7 @@
         <v>77.153999999999996</v>
       </c>
       <c r="AX58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>74.153999999999996</v>
       </c>
       <c r="AY58">
@@ -11424,7 +12342,7 @@
         <v>109.06</v>
       </c>
       <c r="BZ58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>63.06</v>
       </c>
       <c r="CA58">
@@ -11437,7 +12355,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:81">
+    <row r="59" spans="1:88">
       <c r="A59" s="2">
         <v>91.097999999999999</v>
       </c>
@@ -11454,7 +12372,7 @@
         <v>125.13</v>
       </c>
       <c r="H59" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>94.13</v>
       </c>
       <c r="I59">
@@ -11470,7 +12388,7 @@
         <v>75.156000000000006</v>
       </c>
       <c r="O59">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>101.15600000000001</v>
       </c>
       <c r="P59">
@@ -11502,7 +12420,7 @@
         <v>73.027000000000001</v>
       </c>
       <c r="AC59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>110.027</v>
       </c>
       <c r="AD59">
@@ -11534,7 +12452,7 @@
         <v>76.007999999999996</v>
       </c>
       <c r="AQ59">
-        <f t="shared" ref="AQ59:AQ97" si="12">AP59+4</f>
+        <f t="shared" ref="AQ59:AQ97" si="13">AP59+4</f>
         <v>80.007999999999996</v>
       </c>
       <c r="AR59">
@@ -11550,7 +12468,7 @@
         <v>78.075000000000003</v>
       </c>
       <c r="AX59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>75.075000000000003</v>
       </c>
       <c r="AY59">
@@ -11598,7 +12516,7 @@
         <v>110.03</v>
       </c>
       <c r="BZ59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>64.03</v>
       </c>
       <c r="CA59">
@@ -11611,7 +12529,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:81">
+    <row r="60" spans="1:88">
       <c r="A60" s="2">
         <v>93.025000000000006</v>
       </c>
@@ -11628,7 +12546,7 @@
         <v>126.09</v>
       </c>
       <c r="H60" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>95.09</v>
       </c>
       <c r="I60">
@@ -11644,7 +12562,7 @@
         <v>76.087999999999994</v>
       </c>
       <c r="O60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>102.08799999999999</v>
       </c>
       <c r="P60">
@@ -11676,7 +12594,7 @@
         <v>74.125</v>
       </c>
       <c r="AC60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>111.125</v>
       </c>
       <c r="AD60">
@@ -11708,7 +12626,7 @@
         <v>77.093999999999994</v>
       </c>
       <c r="AQ60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>81.093999999999994</v>
       </c>
       <c r="AR60">
@@ -11724,7 +12642,7 @@
         <v>79.046000000000006</v>
       </c>
       <c r="AX60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>76.046000000000006</v>
       </c>
       <c r="AY60">
@@ -11772,7 +12690,7 @@
         <v>111.12</v>
       </c>
       <c r="BZ60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>65.12</v>
       </c>
       <c r="CA60">
@@ -11785,7 +12703,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:81">
+    <row r="61" spans="1:88">
       <c r="A61" s="2">
         <v>94.048000000000002</v>
       </c>
@@ -11802,7 +12720,7 @@
         <v>127.03</v>
       </c>
       <c r="H61" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>96.03</v>
       </c>
       <c r="I61">
@@ -11818,7 +12736,7 @@
         <v>77.004999999999995</v>
       </c>
       <c r="O61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>103.005</v>
       </c>
       <c r="P61">
@@ -11850,7 +12768,7 @@
         <v>75.051000000000002</v>
       </c>
       <c r="AC61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>112.051</v>
       </c>
       <c r="AD61">
@@ -11882,7 +12800,7 @@
         <v>78.132000000000005</v>
       </c>
       <c r="AQ61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>82.132000000000005</v>
       </c>
       <c r="AR61">
@@ -11898,7 +12816,7 @@
         <v>80.114999999999995</v>
       </c>
       <c r="AX61">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>77.114999999999995</v>
       </c>
       <c r="AY61">
@@ -11946,7 +12864,7 @@
         <v>112.11</v>
       </c>
       <c r="BZ61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>66.11</v>
       </c>
       <c r="CA61">
@@ -11959,7 +12877,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:81">
+    <row r="62" spans="1:88">
       <c r="A62" s="2">
         <v>95.129000000000005</v>
       </c>
@@ -11976,7 +12894,7 @@
         <v>128.13</v>
       </c>
       <c r="H62" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>97.13</v>
       </c>
       <c r="I62">
@@ -11992,7 +12910,7 @@
         <v>78.078999999999994</v>
       </c>
       <c r="O62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>104.07899999999999</v>
       </c>
       <c r="P62">
@@ -12024,7 +12942,7 @@
         <v>76.111999999999995</v>
       </c>
       <c r="AC62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>113.11199999999999</v>
       </c>
       <c r="AD62">
@@ -12056,7 +12974,7 @@
         <v>79.066000000000003</v>
       </c>
       <c r="AQ62">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>83.066000000000003</v>
       </c>
       <c r="AR62">
@@ -12072,7 +12990,7 @@
         <v>81.096000000000004</v>
       </c>
       <c r="AX62">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>78.096000000000004</v>
       </c>
       <c r="AY62">
@@ -12089,7 +13007,7 @@
         <v>76.078000000000003</v>
       </c>
       <c r="BL62">
-        <f t="shared" ref="BL62:BL101" si="13">BK62+24</f>
+        <f t="shared" ref="BL62:BL101" si="14">BK62+24</f>
         <v>100.078</v>
       </c>
       <c r="BM62">
@@ -12120,7 +13038,7 @@
         <v>113.09</v>
       </c>
       <c r="BZ62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>67.09</v>
       </c>
       <c r="CA62">
@@ -12133,7 +13051,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:81">
+    <row r="63" spans="1:88">
       <c r="A63" s="2">
         <v>96.058999999999997</v>
       </c>
@@ -12150,7 +13068,7 @@
         <v>129.05000000000001</v>
       </c>
       <c r="H63" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>98.050000000000011</v>
       </c>
       <c r="I63">
@@ -12166,7 +13084,7 @@
         <v>79.123999999999995</v>
       </c>
       <c r="O63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>105.124</v>
       </c>
       <c r="P63">
@@ -12198,7 +13116,7 @@
         <v>77.013999999999996</v>
       </c>
       <c r="AC63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>114.014</v>
       </c>
       <c r="AD63">
@@ -12214,7 +13132,7 @@
         <v>80.004999999999995</v>
       </c>
       <c r="AQ63">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>84.004999999999995</v>
       </c>
       <c r="AR63">
@@ -12230,7 +13148,7 @@
         <v>82.031000000000006</v>
       </c>
       <c r="AX63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>79.031000000000006</v>
       </c>
       <c r="AY63">
@@ -12247,7 +13165,7 @@
         <v>77.043999999999997</v>
       </c>
       <c r="BL63">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>101.044</v>
       </c>
       <c r="BM63">
@@ -12278,7 +13196,7 @@
         <v>114.02</v>
       </c>
       <c r="BZ63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>68.02</v>
       </c>
       <c r="CA63">
@@ -12291,7 +13209,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:81">
+    <row r="64" spans="1:88">
       <c r="A64" s="2">
         <v>97.105000000000004</v>
       </c>
@@ -12308,7 +13226,7 @@
         <v>130.13</v>
       </c>
       <c r="H64" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>99.13</v>
       </c>
       <c r="I64">
@@ -12324,7 +13242,7 @@
         <v>80.072000000000003</v>
       </c>
       <c r="O64">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>106.072</v>
       </c>
       <c r="P64">
@@ -12356,7 +13274,7 @@
         <v>78.125</v>
       </c>
       <c r="AC64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>115.125</v>
       </c>
       <c r="AD64">
@@ -12372,7 +13290,7 @@
         <v>81.108999999999995</v>
       </c>
       <c r="AQ64">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>85.108999999999995</v>
       </c>
       <c r="AR64">
@@ -12388,7 +13306,7 @@
         <v>83.07</v>
       </c>
       <c r="AX64">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>80.069999999999993</v>
       </c>
       <c r="AY64">
@@ -12405,7 +13323,7 @@
         <v>78.146000000000001</v>
       </c>
       <c r="BL64">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>102.146</v>
       </c>
       <c r="BM64">
@@ -12436,7 +13354,7 @@
         <v>115.1</v>
       </c>
       <c r="BZ64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>69.099999999999994</v>
       </c>
       <c r="CA64">
@@ -12466,7 +13384,7 @@
         <v>131.11000000000001</v>
       </c>
       <c r="H65" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>100.11000000000001</v>
       </c>
       <c r="I65">
@@ -12482,7 +13400,7 @@
         <v>81.018000000000001</v>
       </c>
       <c r="O65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>107.018</v>
       </c>
       <c r="P65">
@@ -12514,7 +13432,7 @@
         <v>79.058000000000007</v>
       </c>
       <c r="AC65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>116.05800000000001</v>
       </c>
       <c r="AD65">
@@ -12530,7 +13448,7 @@
         <v>82.046000000000006</v>
       </c>
       <c r="AQ65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>86.046000000000006</v>
       </c>
       <c r="AR65">
@@ -12546,7 +13464,7 @@
         <v>84.031999999999996</v>
       </c>
       <c r="AX65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>81.031999999999996</v>
       </c>
       <c r="AY65">
@@ -12563,7 +13481,7 @@
         <v>79.093999999999994</v>
       </c>
       <c r="BL65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>103.09399999999999</v>
       </c>
       <c r="BM65">
@@ -12594,7 +13512,7 @@
         <v>116.04</v>
       </c>
       <c r="BZ65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>70.040000000000006</v>
       </c>
       <c r="CA65">
@@ -12624,7 +13542,7 @@
         <v>132.03</v>
       </c>
       <c r="H66" s="5">
-        <f t="shared" ref="H66:H121" si="14">G66-31</f>
+        <f t="shared" ref="H66:H121" si="15">G66-31</f>
         <v>101.03</v>
       </c>
       <c r="I66">
@@ -12640,7 +13558,7 @@
         <v>82.119</v>
       </c>
       <c r="O66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>108.119</v>
       </c>
       <c r="P66">
@@ -12656,7 +13574,7 @@
         <v>80.128</v>
       </c>
       <c r="V66">
-        <f t="shared" ref="V66:V128" si="15">U66-6</f>
+        <f t="shared" ref="V66:V128" si="16">U66-6</f>
         <v>74.128</v>
       </c>
       <c r="W66">
@@ -12672,7 +13590,7 @@
         <v>80.164000000000001</v>
       </c>
       <c r="AC66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>117.164</v>
       </c>
       <c r="AD66">
@@ -12688,7 +13606,7 @@
         <v>83.016999999999996</v>
       </c>
       <c r="AQ66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>87.016999999999996</v>
       </c>
       <c r="AR66">
@@ -12704,7 +13622,7 @@
         <v>85.106999999999999</v>
       </c>
       <c r="AX66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>82.106999999999999</v>
       </c>
       <c r="AY66">
@@ -12721,7 +13639,7 @@
         <v>80.084999999999994</v>
       </c>
       <c r="BL66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>104.08499999999999</v>
       </c>
       <c r="BM66">
@@ -12752,7 +13670,7 @@
         <v>117.16</v>
       </c>
       <c r="BZ66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>71.16</v>
       </c>
       <c r="CA66">
@@ -12782,7 +13700,7 @@
         <v>133.13999999999999</v>
       </c>
       <c r="H67" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>102.13999999999999</v>
       </c>
       <c r="I67">
@@ -12798,7 +13716,7 @@
         <v>83.019000000000005</v>
       </c>
       <c r="O67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>109.01900000000001</v>
       </c>
       <c r="P67">
@@ -12814,7 +13732,7 @@
         <v>81.042000000000002</v>
       </c>
       <c r="V67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>75.042000000000002</v>
       </c>
       <c r="W67">
@@ -12830,7 +13748,7 @@
         <v>81.090999999999994</v>
       </c>
       <c r="AC67">
-        <f t="shared" ref="AC67:AC126" si="16">AB67+37</f>
+        <f t="shared" ref="AC67:AC126" si="17">AB67+37</f>
         <v>118.09099999999999</v>
       </c>
       <c r="AD67">
@@ -12846,7 +13764,7 @@
         <v>84.1</v>
       </c>
       <c r="AQ67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>88.1</v>
       </c>
       <c r="AR67">
@@ -12862,7 +13780,7 @@
         <v>86.126000000000005</v>
       </c>
       <c r="AX67">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>83.126000000000005</v>
       </c>
       <c r="AY67">
@@ -12879,7 +13797,7 @@
         <v>81.004000000000005</v>
       </c>
       <c r="BL67">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>105.004</v>
       </c>
       <c r="BM67">
@@ -12910,7 +13828,7 @@
         <v>118.07</v>
       </c>
       <c r="BZ67">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>72.069999999999993</v>
       </c>
       <c r="CA67">
@@ -12940,7 +13858,7 @@
         <v>134.09</v>
       </c>
       <c r="H68" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>103.09</v>
       </c>
       <c r="I68">
@@ -12956,7 +13874,7 @@
         <v>84.093000000000004</v>
       </c>
       <c r="O68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>110.093</v>
       </c>
       <c r="P68">
@@ -12972,7 +13890,7 @@
         <v>82.102000000000004</v>
       </c>
       <c r="V68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>76.102000000000004</v>
       </c>
       <c r="W68">
@@ -12988,7 +13906,7 @@
         <v>82.033000000000001</v>
       </c>
       <c r="AC68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>119.033</v>
       </c>
       <c r="AD68">
@@ -13004,7 +13922,7 @@
         <v>85.149000000000001</v>
       </c>
       <c r="AQ68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>89.149000000000001</v>
       </c>
       <c r="AR68">
@@ -13020,7 +13938,7 @@
         <v>87.081000000000003</v>
       </c>
       <c r="AX68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>84.081000000000003</v>
       </c>
       <c r="AY68">
@@ -13037,7 +13955,7 @@
         <v>82.072000000000003</v>
       </c>
       <c r="BL68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>106.072</v>
       </c>
       <c r="BM68">
@@ -13068,7 +13986,7 @@
         <v>119.03</v>
       </c>
       <c r="BZ68">
-        <f t="shared" ref="BZ68:BZ80" si="17">BY68-46</f>
+        <f t="shared" ref="BZ68:BZ80" si="18">BY68-46</f>
         <v>73.03</v>
       </c>
       <c r="CA68">
@@ -13098,7 +14016,7 @@
         <v>135.02000000000001</v>
       </c>
       <c r="H69" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>104.02000000000001</v>
       </c>
       <c r="I69">
@@ -13114,7 +14032,7 @@
         <v>85.007999999999996</v>
       </c>
       <c r="O69">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>111.008</v>
       </c>
       <c r="P69">
@@ -13130,7 +14048,7 @@
         <v>83.007000000000005</v>
       </c>
       <c r="V69">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>77.007000000000005</v>
       </c>
       <c r="W69">
@@ -13146,7 +14064,7 @@
         <v>83.058999999999997</v>
       </c>
       <c r="AC69">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>120.059</v>
       </c>
       <c r="AD69">
@@ -13162,7 +14080,7 @@
         <v>86.058999999999997</v>
       </c>
       <c r="AQ69">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>90.058999999999997</v>
       </c>
       <c r="AR69">
@@ -13178,7 +14096,7 @@
         <v>88.156000000000006</v>
       </c>
       <c r="AX69">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>85.156000000000006</v>
       </c>
       <c r="AY69">
@@ -13195,7 +14113,7 @@
         <v>83.033000000000001</v>
       </c>
       <c r="BL69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>107.033</v>
       </c>
       <c r="BM69">
@@ -13226,7 +14144,7 @@
         <v>120.17</v>
       </c>
       <c r="BZ69">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>74.17</v>
       </c>
       <c r="CA69">
@@ -13256,7 +14174,7 @@
         <v>136.01</v>
       </c>
       <c r="H70" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>105.00999999999999</v>
       </c>
       <c r="I70">
@@ -13272,7 +14190,7 @@
         <v>86.055999999999997</v>
       </c>
       <c r="O70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>112.056</v>
       </c>
       <c r="P70">
@@ -13288,7 +14206,7 @@
         <v>84.128</v>
       </c>
       <c r="V70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>78.128</v>
       </c>
       <c r="W70">
@@ -13304,7 +14222,7 @@
         <v>84.159000000000006</v>
       </c>
       <c r="AC70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>121.15900000000001</v>
       </c>
       <c r="AD70">
@@ -13320,7 +14238,7 @@
         <v>87.015000000000001</v>
       </c>
       <c r="AQ70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>91.015000000000001</v>
       </c>
       <c r="AR70">
@@ -13336,7 +14254,7 @@
         <v>89.150999999999996</v>
       </c>
       <c r="AX70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>86.150999999999996</v>
       </c>
       <c r="AY70">
@@ -13353,7 +14271,7 @@
         <v>84.147999999999996</v>
       </c>
       <c r="BL70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>108.148</v>
       </c>
       <c r="BM70">
@@ -13384,7 +14302,7 @@
         <v>121.16</v>
       </c>
       <c r="BZ70">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>75.16</v>
       </c>
       <c r="CA70">
@@ -13414,7 +14332,7 @@
         <v>137.15</v>
       </c>
       <c r="H71" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>106.15</v>
       </c>
       <c r="I71">
@@ -13430,7 +14348,7 @@
         <v>87.028000000000006</v>
       </c>
       <c r="O71">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>113.02800000000001</v>
       </c>
       <c r="P71">
@@ -13446,7 +14364,7 @@
         <v>85.007999999999996</v>
       </c>
       <c r="V71">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>79.007999999999996</v>
       </c>
       <c r="W71">
@@ -13462,7 +14380,7 @@
         <v>85.100999999999999</v>
       </c>
       <c r="AC71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>122.101</v>
       </c>
       <c r="AD71">
@@ -13478,7 +14396,7 @@
         <v>88.091999999999999</v>
       </c>
       <c r="AQ71">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>92.091999999999999</v>
       </c>
       <c r="AR71">
@@ -13494,7 +14412,7 @@
         <v>90.087000000000003</v>
       </c>
       <c r="AX71">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>87.087000000000003</v>
       </c>
       <c r="AY71">
@@ -13511,7 +14429,7 @@
         <v>85.091999999999999</v>
       </c>
       <c r="BL71">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>109.092</v>
       </c>
       <c r="BM71">
@@ -13542,7 +14460,7 @@
         <v>122.13</v>
       </c>
       <c r="BZ71">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>76.13</v>
       </c>
       <c r="CA71">
@@ -13572,7 +14490,7 @@
         <v>138.12</v>
       </c>
       <c r="H72" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>107.12</v>
       </c>
       <c r="I72">
@@ -13588,7 +14506,7 @@
         <v>88.105000000000004</v>
       </c>
       <c r="O72">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>114.105</v>
       </c>
       <c r="P72">
@@ -13604,7 +14522,7 @@
         <v>86.117000000000004</v>
       </c>
       <c r="V72">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>80.117000000000004</v>
       </c>
       <c r="W72">
@@ -13620,7 +14538,7 @@
         <v>86.14</v>
       </c>
       <c r="AC72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>123.14</v>
       </c>
       <c r="AD72">
@@ -13636,7 +14554,7 @@
         <v>89.013000000000005</v>
       </c>
       <c r="AQ72">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>93.013000000000005</v>
       </c>
       <c r="AR72">
@@ -13652,7 +14570,7 @@
         <v>91.126999999999995</v>
       </c>
       <c r="AX72">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>88.126999999999995</v>
       </c>
       <c r="AY72">
@@ -13669,7 +14587,7 @@
         <v>86.057000000000002</v>
       </c>
       <c r="BL72">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>110.057</v>
       </c>
       <c r="BM72">
@@ -13700,7 +14618,7 @@
         <v>123.03</v>
       </c>
       <c r="BZ72">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>77.03</v>
       </c>
       <c r="CA72">
@@ -13730,7 +14648,7 @@
         <v>139.08000000000001</v>
       </c>
       <c r="H73" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>108.08000000000001</v>
       </c>
       <c r="I73">
@@ -13746,7 +14664,7 @@
         <v>89.037999999999997</v>
       </c>
       <c r="O73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>115.038</v>
       </c>
       <c r="P73">
@@ -13762,7 +14680,7 @@
         <v>87.04</v>
       </c>
       <c r="V73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>81.040000000000006</v>
       </c>
       <c r="W73">
@@ -13778,7 +14696,7 @@
         <v>87.052000000000007</v>
       </c>
       <c r="AC73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>124.05200000000001</v>
       </c>
       <c r="AD73">
@@ -13794,7 +14712,7 @@
         <v>90.106999999999999</v>
       </c>
       <c r="AQ73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>94.106999999999999</v>
       </c>
       <c r="AR73">
@@ -13810,7 +14728,7 @@
         <v>92.067999999999998</v>
       </c>
       <c r="AX73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>89.067999999999998</v>
       </c>
       <c r="AY73">
@@ -13827,7 +14745,7 @@
         <v>87.113</v>
       </c>
       <c r="BL73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>111.113</v>
       </c>
       <c r="BM73">
@@ -13858,7 +14776,7 @@
         <v>124.13</v>
       </c>
       <c r="BZ73">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>78.13</v>
       </c>
       <c r="CA73">
@@ -13888,7 +14806,7 @@
         <v>140.15</v>
       </c>
       <c r="H74" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>109.15</v>
       </c>
       <c r="I74">
@@ -13904,7 +14822,7 @@
         <v>90.096000000000004</v>
       </c>
       <c r="O74">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>116.096</v>
       </c>
       <c r="P74">
@@ -13920,7 +14838,7 @@
         <v>88.14</v>
       </c>
       <c r="V74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>82.14</v>
       </c>
       <c r="W74">
@@ -13936,7 +14854,7 @@
         <v>88.138000000000005</v>
       </c>
       <c r="AC74">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>125.13800000000001</v>
       </c>
       <c r="AD74">
@@ -13952,7 +14870,7 @@
         <v>91.061000000000007</v>
       </c>
       <c r="AQ74">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>95.061000000000007</v>
       </c>
       <c r="AR74">
@@ -13968,7 +14886,7 @@
         <v>93.103999999999999</v>
       </c>
       <c r="AX74">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>90.103999999999999</v>
       </c>
       <c r="AY74">
@@ -13985,7 +14903,7 @@
         <v>88.061999999999998</v>
       </c>
       <c r="BL74">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>112.062</v>
       </c>
       <c r="BM74">
@@ -14016,7 +14934,7 @@
         <v>125.04</v>
       </c>
       <c r="BZ74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>79.040000000000006</v>
       </c>
       <c r="CA74">
@@ -14046,7 +14964,7 @@
         <v>141.09</v>
       </c>
       <c r="H75" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>110.09</v>
       </c>
       <c r="I75">
@@ -14062,7 +14980,7 @@
         <v>91.012</v>
       </c>
       <c r="O75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>117.012</v>
       </c>
       <c r="P75">
@@ -14078,7 +14996,7 @@
         <v>89.084000000000003</v>
       </c>
       <c r="V75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>83.084000000000003</v>
       </c>
       <c r="W75">
@@ -14094,7 +15012,7 @@
         <v>89.106999999999999</v>
       </c>
       <c r="AC75">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>126.107</v>
       </c>
       <c r="AD75">
@@ -14110,7 +15028,7 @@
         <v>92.027000000000001</v>
       </c>
       <c r="AQ75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>96.027000000000001</v>
       </c>
       <c r="AR75">
@@ -14126,7 +15044,7 @@
         <v>94.067999999999998</v>
       </c>
       <c r="AX75">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>91.067999999999998</v>
       </c>
       <c r="AY75">
@@ -14143,7 +15061,7 @@
         <v>89.006</v>
       </c>
       <c r="BL75">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>113.006</v>
       </c>
       <c r="BM75">
@@ -14174,7 +15092,7 @@
         <v>126.15</v>
       </c>
       <c r="BZ75">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>80.150000000000006</v>
       </c>
       <c r="CA75">
@@ -14204,7 +15122,7 @@
         <v>142.03</v>
       </c>
       <c r="H76" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>111.03</v>
       </c>
       <c r="I76">
@@ -14220,7 +15138,7 @@
         <v>92.1</v>
       </c>
       <c r="O76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>118.1</v>
       </c>
       <c r="P76">
@@ -14236,7 +15154,7 @@
         <v>91.102000000000004</v>
       </c>
       <c r="V76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>85.102000000000004</v>
       </c>
       <c r="W76">
@@ -14252,7 +15170,7 @@
         <v>90.037999999999997</v>
       </c>
       <c r="AC76">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>127.038</v>
       </c>
       <c r="AD76">
@@ -14268,7 +15186,7 @@
         <v>93.081000000000003</v>
       </c>
       <c r="AQ76">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>97.081000000000003</v>
       </c>
       <c r="AR76">
@@ -14284,7 +15202,7 @@
         <v>95.004000000000005</v>
       </c>
       <c r="AX76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>92.004000000000005</v>
       </c>
       <c r="AY76">
@@ -14301,7 +15219,7 @@
         <v>90.090999999999994</v>
       </c>
       <c r="BL76">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>114.09099999999999</v>
       </c>
       <c r="BM76">
@@ -14332,7 +15250,7 @@
         <v>127.06</v>
       </c>
       <c r="BZ76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>81.06</v>
       </c>
       <c r="CA76">
@@ -14362,7 +15280,7 @@
         <v>143.05000000000001</v>
       </c>
       <c r="H77" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>112.05000000000001</v>
       </c>
       <c r="I77">
@@ -14378,7 +15296,7 @@
         <v>93.119</v>
       </c>
       <c r="O77">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>119.119</v>
       </c>
       <c r="P77">
@@ -14394,7 +15312,7 @@
         <v>92.027000000000001</v>
       </c>
       <c r="V77">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>86.027000000000001</v>
       </c>
       <c r="W77">
@@ -14410,7 +15328,7 @@
         <v>91.137</v>
       </c>
       <c r="AC77">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>128.137</v>
       </c>
       <c r="AD77">
@@ -14426,7 +15344,7 @@
         <v>94.033000000000001</v>
       </c>
       <c r="AQ77">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>98.033000000000001</v>
       </c>
       <c r="AR77">
@@ -14442,7 +15360,7 @@
         <v>96.09</v>
       </c>
       <c r="AX77">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>93.09</v>
       </c>
       <c r="AY77">
@@ -14459,7 +15377,7 @@
         <v>91.05</v>
       </c>
       <c r="BL77">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>115.05</v>
       </c>
       <c r="BM77">
@@ -14490,7 +15408,7 @@
         <v>129.06</v>
       </c>
       <c r="BZ77">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>83.06</v>
       </c>
       <c r="CA77">
@@ -14520,7 +15438,7 @@
         <v>144.12</v>
       </c>
       <c r="H78" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>113.12</v>
       </c>
       <c r="I78">
@@ -14536,7 +15454,7 @@
         <v>94.078000000000003</v>
       </c>
       <c r="O78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>120.078</v>
       </c>
       <c r="P78">
@@ -14552,7 +15470,7 @@
         <v>93.114000000000004</v>
       </c>
       <c r="V78">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>87.114000000000004</v>
       </c>
       <c r="W78">
@@ -14568,7 +15486,7 @@
         <v>92.048000000000002</v>
       </c>
       <c r="AC78">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>129.048</v>
       </c>
       <c r="AD78">
@@ -14584,7 +15502,7 @@
         <v>95.105000000000004</v>
       </c>
       <c r="AQ78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>99.105000000000004</v>
       </c>
       <c r="AR78">
@@ -14600,7 +15518,7 @@
         <v>98.119</v>
       </c>
       <c r="AX78">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>95.119</v>
       </c>
       <c r="AY78">
@@ -14617,7 +15535,7 @@
         <v>92.117999999999995</v>
       </c>
       <c r="BL78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>116.11799999999999</v>
       </c>
       <c r="BM78">
@@ -14648,7 +15566,7 @@
         <v>130.03</v>
       </c>
       <c r="BZ78">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>84.03</v>
       </c>
       <c r="CA78">
@@ -14678,7 +15596,7 @@
         <v>145.09</v>
       </c>
       <c r="H79" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>114.09</v>
       </c>
       <c r="I79">
@@ -14694,7 +15612,7 @@
         <v>95.034000000000006</v>
       </c>
       <c r="O79">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>121.03400000000001</v>
       </c>
       <c r="P79">
@@ -14710,7 +15628,7 @@
         <v>94.043999999999997</v>
       </c>
       <c r="V79">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>88.043999999999997</v>
       </c>
       <c r="W79">
@@ -14726,7 +15644,7 @@
         <v>93.061000000000007</v>
       </c>
       <c r="AC79">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>130.06100000000001</v>
       </c>
       <c r="AD79">
@@ -14742,7 +15660,7 @@
         <v>96.144000000000005</v>
       </c>
       <c r="AQ79">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>100.14400000000001</v>
       </c>
       <c r="AR79">
@@ -14758,7 +15676,7 @@
         <v>99.090999999999994</v>
       </c>
       <c r="AX79">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>96.090999999999994</v>
       </c>
       <c r="AY79">
@@ -14775,7 +15693,7 @@
         <v>93.08</v>
       </c>
       <c r="BL79">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>117.08</v>
       </c>
       <c r="BM79">
@@ -14806,7 +15724,7 @@
         <v>131.15</v>
       </c>
       <c r="BZ79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>85.15</v>
       </c>
       <c r="CA79">
@@ -14836,7 +15754,7 @@
         <v>146.02000000000001</v>
       </c>
       <c r="H80" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>115.02000000000001</v>
       </c>
       <c r="I80">
@@ -14852,7 +15770,7 @@
         <v>96.135000000000005</v>
       </c>
       <c r="O80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>122.13500000000001</v>
       </c>
       <c r="P80">
@@ -14868,7 +15786,7 @@
         <v>95.144999999999996</v>
       </c>
       <c r="V80">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>89.144999999999996</v>
       </c>
       <c r="W80">
@@ -14884,7 +15802,7 @@
         <v>94.125</v>
       </c>
       <c r="AC80">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>131.125</v>
       </c>
       <c r="AD80">
@@ -14900,7 +15818,7 @@
         <v>97.043000000000006</v>
       </c>
       <c r="AQ80">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>101.04300000000001</v>
       </c>
       <c r="AR80">
@@ -14916,7 +15834,7 @@
         <v>100.06</v>
       </c>
       <c r="AX80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>97.06</v>
       </c>
       <c r="AY80">
@@ -14933,7 +15851,7 @@
         <v>94.018000000000001</v>
       </c>
       <c r="BL80">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>118.018</v>
       </c>
       <c r="BM80">
@@ -14964,7 +15882,7 @@
         <v>132.11000000000001</v>
       </c>
       <c r="BZ80">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>86.110000000000014</v>
       </c>
       <c r="CA80">
@@ -14994,7 +15912,7 @@
         <v>147.12</v>
       </c>
       <c r="H81" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>116.12</v>
       </c>
       <c r="I81">
@@ -15010,7 +15928,7 @@
         <v>97.072999999999993</v>
       </c>
       <c r="O81">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>123.07299999999999</v>
       </c>
       <c r="P81">
@@ -15026,7 +15944,7 @@
         <v>96.108999999999995</v>
       </c>
       <c r="V81">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>90.108999999999995</v>
       </c>
       <c r="W81">
@@ -15042,7 +15960,7 @@
         <v>95.087999999999994</v>
       </c>
       <c r="AC81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>132.08799999999999</v>
       </c>
       <c r="AD81">
@@ -15058,7 +15976,7 @@
         <v>98.132000000000005</v>
       </c>
       <c r="AQ81">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>102.13200000000001</v>
       </c>
       <c r="AR81">
@@ -15074,7 +15992,7 @@
         <v>101.12</v>
       </c>
       <c r="AX81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>98.12</v>
       </c>
       <c r="AY81">
@@ -15091,7 +16009,7 @@
         <v>95.122</v>
       </c>
       <c r="BL81">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>119.122</v>
       </c>
       <c r="BM81">
@@ -15136,7 +16054,7 @@
         <v>148.03</v>
       </c>
       <c r="H82" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>117.03</v>
       </c>
       <c r="I82">
@@ -15152,7 +16070,7 @@
         <v>98.105999999999995</v>
       </c>
       <c r="O82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>124.10599999999999</v>
       </c>
       <c r="P82">
@@ -15168,7 +16086,7 @@
         <v>97.055999999999997</v>
       </c>
       <c r="V82">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>91.055999999999997</v>
       </c>
       <c r="W82">
@@ -15184,7 +16102,7 @@
         <v>96.131</v>
       </c>
       <c r="AC82">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>133.131</v>
       </c>
       <c r="AD82">
@@ -15200,7 +16118,7 @@
         <v>99.1</v>
       </c>
       <c r="AQ82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>103.1</v>
       </c>
       <c r="AR82">
@@ -15216,7 +16134,7 @@
         <v>102.09</v>
       </c>
       <c r="AX82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>99.09</v>
       </c>
       <c r="AY82">
@@ -15233,7 +16151,7 @@
         <v>96.052999999999997</v>
       </c>
       <c r="BL82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>120.053</v>
       </c>
       <c r="BM82">
@@ -15278,7 +16196,7 @@
         <v>149.11000000000001</v>
       </c>
       <c r="H83" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>118.11000000000001</v>
       </c>
       <c r="I83">
@@ -15294,7 +16212,7 @@
         <v>99.05</v>
       </c>
       <c r="O83">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>125.05</v>
       </c>
       <c r="P83">
@@ -15310,7 +16228,7 @@
         <v>98.004000000000005</v>
       </c>
       <c r="V83">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>92.004000000000005</v>
       </c>
       <c r="W83">
@@ -15326,7 +16244,7 @@
         <v>97.043000000000006</v>
       </c>
       <c r="AC83">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>134.04300000000001</v>
       </c>
       <c r="AD83">
@@ -15342,7 +16260,7 @@
         <v>100.02</v>
       </c>
       <c r="AQ83">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>104.02</v>
       </c>
       <c r="AR83">
@@ -15358,7 +16276,7 @@
         <v>103.05</v>
       </c>
       <c r="AX83">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>100.05</v>
       </c>
       <c r="AY83">
@@ -15375,7 +16293,7 @@
         <v>97.025000000000006</v>
       </c>
       <c r="BL83">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>121.02500000000001</v>
       </c>
       <c r="BM83">
@@ -15420,7 +16338,7 @@
         <v>150.08000000000001</v>
       </c>
       <c r="H84" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>119.08000000000001</v>
       </c>
       <c r="I84">
@@ -15436,7 +16354,7 @@
         <v>100.11</v>
       </c>
       <c r="O84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>126.11</v>
       </c>
       <c r="P84">
@@ -15452,7 +16370,7 @@
         <v>99.119</v>
       </c>
       <c r="V84">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>93.119</v>
       </c>
       <c r="W84">
@@ -15468,7 +16386,7 @@
         <v>98.108999999999995</v>
       </c>
       <c r="AC84">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>135.10899999999998</v>
       </c>
       <c r="AD84">
@@ -15484,7 +16402,7 @@
         <v>101.1</v>
       </c>
       <c r="AQ84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>105.1</v>
       </c>
       <c r="AR84">
@@ -15500,7 +16418,7 @@
         <v>104.01</v>
       </c>
       <c r="AX84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>101.01</v>
       </c>
       <c r="AY84">
@@ -15517,7 +16435,7 @@
         <v>98.132999999999996</v>
       </c>
       <c r="BL84">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>122.133</v>
       </c>
       <c r="BM84">
@@ -15562,7 +16480,7 @@
         <v>151.03</v>
       </c>
       <c r="H85" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>120.03</v>
       </c>
       <c r="I85">
@@ -15578,7 +16496,7 @@
         <v>101.06</v>
       </c>
       <c r="O85">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>127.06</v>
       </c>
       <c r="P85">
@@ -15594,7 +16512,7 @@
         <v>100</v>
       </c>
       <c r="V85">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>94</v>
       </c>
       <c r="W85">
@@ -15610,7 +16528,7 @@
         <v>99.048000000000002</v>
       </c>
       <c r="AC85">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>136.048</v>
       </c>
       <c r="AD85">
@@ -15626,7 +16544,7 @@
         <v>102.01</v>
       </c>
       <c r="AQ85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>106.01</v>
       </c>
       <c r="AR85">
@@ -15642,7 +16560,7 @@
         <v>105.09</v>
       </c>
       <c r="AX85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>102.09</v>
       </c>
       <c r="AY85">
@@ -15659,7 +16577,7 @@
         <v>99.081000000000003</v>
       </c>
       <c r="BL85">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>123.081</v>
       </c>
       <c r="BM85">
@@ -15704,7 +16622,7 @@
         <v>152.16999999999999</v>
       </c>
       <c r="H86" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>121.16999999999999</v>
       </c>
       <c r="I86">
@@ -15720,7 +16638,7 @@
         <v>102.11</v>
       </c>
       <c r="O86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>128.11000000000001</v>
       </c>
       <c r="P86">
@@ -15736,7 +16654,7 @@
         <v>101.11</v>
       </c>
       <c r="V86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>95.11</v>
       </c>
       <c r="W86">
@@ -15752,7 +16670,7 @@
         <v>100</v>
       </c>
       <c r="AC86">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>137</v>
       </c>
       <c r="AD86">
@@ -15768,7 +16686,7 @@
         <v>103.12</v>
       </c>
       <c r="AQ86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>107.12</v>
       </c>
       <c r="AR86">
@@ -15784,7 +16702,7 @@
         <v>106.05</v>
       </c>
       <c r="AX86">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>103.05</v>
       </c>
       <c r="AY86">
@@ -15801,7 +16719,7 @@
         <v>100.03</v>
       </c>
       <c r="BL86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>124.03</v>
       </c>
       <c r="BM86">
@@ -15846,7 +16764,7 @@
         <v>153.11000000000001</v>
       </c>
       <c r="H87" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>122.11000000000001</v>
       </c>
       <c r="I87">
@@ -15862,7 +16780,7 @@
         <v>103.03</v>
       </c>
       <c r="O87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>129.03</v>
       </c>
       <c r="P87">
@@ -15878,7 +16796,7 @@
         <v>102.01</v>
       </c>
       <c r="V87">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>96.01</v>
       </c>
       <c r="W87">
@@ -15894,7 +16812,7 @@
         <v>101.05</v>
       </c>
       <c r="AC87">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>138.05000000000001</v>
       </c>
       <c r="AD87">
@@ -15910,7 +16828,7 @@
         <v>104.04</v>
       </c>
       <c r="AQ87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>108.04</v>
       </c>
       <c r="AR87">
@@ -15926,7 +16844,7 @@
         <v>108.08</v>
       </c>
       <c r="AX87">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>105.08</v>
       </c>
       <c r="AY87">
@@ -15943,7 +16861,7 @@
         <v>101.13</v>
       </c>
       <c r="BL87">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>125.13</v>
       </c>
       <c r="BM87">
@@ -15988,7 +16906,7 @@
         <v>154.1</v>
       </c>
       <c r="H88" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>123.1</v>
       </c>
       <c r="I88">
@@ -16004,7 +16922,7 @@
         <v>104.11</v>
       </c>
       <c r="O88">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>130.11000000000001</v>
       </c>
       <c r="P88">
@@ -16020,7 +16938,7 @@
         <v>103.06</v>
       </c>
       <c r="V88">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>97.06</v>
       </c>
       <c r="W88">
@@ -16036,7 +16954,7 @@
         <v>102.11</v>
       </c>
       <c r="AC88">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>139.11000000000001</v>
       </c>
       <c r="AD88">
@@ -16052,7 +16970,7 @@
         <v>105.06</v>
       </c>
       <c r="AQ88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>109.06</v>
       </c>
       <c r="AR88">
@@ -16068,7 +16986,7 @@
         <v>109.16</v>
       </c>
       <c r="AX88">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>106.16</v>
       </c>
       <c r="AY88">
@@ -16085,7 +17003,7 @@
         <v>102.09</v>
       </c>
       <c r="BL88">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>126.09</v>
       </c>
       <c r="BM88">
@@ -16115,7 +17033,7 @@
         <v>155.06</v>
       </c>
       <c r="H89" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>124.06</v>
       </c>
       <c r="I89">
@@ -16131,7 +17049,7 @@
         <v>105.03</v>
       </c>
       <c r="O89">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>131.03</v>
       </c>
       <c r="P89">
@@ -16147,7 +17065,7 @@
         <v>104.13</v>
       </c>
       <c r="V89">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>98.13</v>
       </c>
       <c r="W89">
@@ -16163,7 +17081,7 @@
         <v>103.02</v>
       </c>
       <c r="AC89">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>140.01999999999998</v>
       </c>
       <c r="AD89">
@@ -16179,7 +17097,7 @@
         <v>106.11</v>
       </c>
       <c r="AQ89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>110.11</v>
       </c>
       <c r="AR89">
@@ -16195,7 +17113,7 @@
         <v>110.11</v>
       </c>
       <c r="AX89">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>107.11</v>
       </c>
       <c r="AY89">
@@ -16212,7 +17130,7 @@
         <v>103.05</v>
       </c>
       <c r="BL89">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>127.05</v>
       </c>
       <c r="BM89">
@@ -16242,7 +17160,7 @@
         <v>156.01</v>
       </c>
       <c r="H90" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>125.00999999999999</v>
       </c>
       <c r="I90">
@@ -16258,7 +17176,7 @@
         <v>106.13</v>
       </c>
       <c r="O90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>132.13</v>
       </c>
       <c r="P90">
@@ -16274,7 +17192,7 @@
         <v>105.08</v>
       </c>
       <c r="V90">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>99.08</v>
       </c>
       <c r="W90">
@@ -16290,7 +17208,7 @@
         <v>104.1</v>
       </c>
       <c r="AC90">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>141.1</v>
       </c>
       <c r="AD90">
@@ -16306,7 +17224,7 @@
         <v>107.01</v>
       </c>
       <c r="AQ90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>111.01</v>
       </c>
       <c r="AR90">
@@ -16322,7 +17240,7 @@
         <v>111.01</v>
       </c>
       <c r="AX90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>108.01</v>
       </c>
       <c r="AY90">
@@ -16339,7 +17257,7 @@
         <v>104.01</v>
       </c>
       <c r="BL90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>128.01</v>
       </c>
       <c r="BM90">
@@ -16357,7 +17275,7 @@
         <v>157.12</v>
       </c>
       <c r="H91" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>126.12</v>
       </c>
       <c r="I91">
@@ -16373,7 +17291,7 @@
         <v>107.08</v>
       </c>
       <c r="O91">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>133.07999999999998</v>
       </c>
       <c r="P91">
@@ -16389,7 +17307,7 @@
         <v>106.16</v>
       </c>
       <c r="V91">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>100.16</v>
       </c>
       <c r="W91">
@@ -16405,7 +17323,7 @@
         <v>105.02</v>
       </c>
       <c r="AC91">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>142.01999999999998</v>
       </c>
       <c r="AD91">
@@ -16421,7 +17339,7 @@
         <v>108.12</v>
       </c>
       <c r="AQ91">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>112.12</v>
       </c>
       <c r="AR91">
@@ -16437,7 +17355,7 @@
         <v>112.04</v>
       </c>
       <c r="AX91">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>109.04</v>
       </c>
       <c r="AY91">
@@ -16454,7 +17372,7 @@
         <v>105.09</v>
       </c>
       <c r="BL91">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>129.09</v>
       </c>
       <c r="BM91">
@@ -16472,7 +17390,7 @@
         <v>158.04</v>
       </c>
       <c r="H92" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>127.03999999999999</v>
       </c>
       <c r="I92">
@@ -16488,7 +17406,7 @@
         <v>108.04</v>
       </c>
       <c r="O92">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>134.04000000000002</v>
       </c>
       <c r="P92">
@@ -16504,7 +17422,7 @@
         <v>107.1</v>
       </c>
       <c r="V92">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>101.1</v>
       </c>
       <c r="W92">
@@ -16520,7 +17438,7 @@
         <v>106.13</v>
       </c>
       <c r="AC92">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>143.13</v>
       </c>
       <c r="AD92">
@@ -16536,7 +17454,7 @@
         <v>109.06</v>
       </c>
       <c r="AQ92">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>113.06</v>
       </c>
       <c r="AR92">
@@ -16552,7 +17470,7 @@
         <v>113.09</v>
       </c>
       <c r="AX92">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>110.09</v>
       </c>
       <c r="AY92">
@@ -16569,7 +17487,7 @@
         <v>106.06</v>
       </c>
       <c r="BL92">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>130.06</v>
       </c>
       <c r="BM92">
@@ -16587,7 +17505,7 @@
         <v>159.15</v>
       </c>
       <c r="H93" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>128.15</v>
       </c>
       <c r="I93">
@@ -16603,7 +17521,7 @@
         <v>109.08</v>
       </c>
       <c r="O93">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>135.07999999999998</v>
       </c>
       <c r="P93">
@@ -16619,7 +17537,7 @@
         <v>108.16</v>
       </c>
       <c r="V93">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>102.16</v>
       </c>
       <c r="W93">
@@ -16635,7 +17553,7 @@
         <v>107.03</v>
       </c>
       <c r="AC93">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>144.03</v>
       </c>
       <c r="AD93">
@@ -16651,7 +17569,7 @@
         <v>110.15</v>
       </c>
       <c r="AQ93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>114.15</v>
       </c>
       <c r="AR93">
@@ -16667,7 +17585,7 @@
         <v>114.15</v>
       </c>
       <c r="AX93">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>111.15</v>
       </c>
       <c r="AY93">
@@ -16684,7 +17602,7 @@
         <v>107.14</v>
       </c>
       <c r="BL93">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>131.13999999999999</v>
       </c>
       <c r="BM93">
@@ -16702,7 +17620,7 @@
         <v>160.06</v>
       </c>
       <c r="H94" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>129.06</v>
       </c>
       <c r="I94">
@@ -16718,7 +17636,7 @@
         <v>110.15</v>
       </c>
       <c r="O94">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>136.15</v>
       </c>
       <c r="P94">
@@ -16734,7 +17652,7 @@
         <v>109.07</v>
       </c>
       <c r="V94">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>103.07</v>
       </c>
       <c r="W94">
@@ -16750,7 +17668,7 @@
         <v>108</v>
       </c>
       <c r="AC94">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>145</v>
       </c>
       <c r="AD94">
@@ -16766,7 +17684,7 @@
         <v>111.11</v>
       </c>
       <c r="AQ94">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>115.11</v>
       </c>
       <c r="AR94">
@@ -16782,7 +17700,7 @@
         <v>115.12</v>
       </c>
       <c r="AX94">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>112.12</v>
       </c>
       <c r="AY94">
@@ -16799,7 +17717,7 @@
         <v>108.11</v>
       </c>
       <c r="BL94">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>132.11000000000001</v>
       </c>
       <c r="BM94">
@@ -16817,7 +17735,7 @@
         <v>161.05000000000001</v>
       </c>
       <c r="H95" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>130.05000000000001</v>
       </c>
       <c r="I95">
@@ -16833,7 +17751,7 @@
         <v>111.07</v>
       </c>
       <c r="O95">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>137.07</v>
       </c>
       <c r="P95">
@@ -16849,7 +17767,7 @@
         <v>110.02</v>
       </c>
       <c r="V95">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>104.02</v>
       </c>
       <c r="W95">
@@ -16865,7 +17783,7 @@
         <v>109.03</v>
       </c>
       <c r="AC95">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>146.03</v>
       </c>
       <c r="AD95">
@@ -16881,7 +17799,7 @@
         <v>113.14</v>
       </c>
       <c r="AQ95">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>117.14</v>
       </c>
       <c r="AR95">
@@ -16897,7 +17815,7 @@
         <v>116.06</v>
       </c>
       <c r="AX95">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>113.06</v>
       </c>
       <c r="AY95">
@@ -16914,7 +17832,7 @@
         <v>109.07</v>
       </c>
       <c r="BL95">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>133.07</v>
       </c>
       <c r="BM95">
@@ -16932,7 +17850,7 @@
         <v>162.18</v>
       </c>
       <c r="H96" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>131.18</v>
       </c>
       <c r="I96">
@@ -16948,7 +17866,7 @@
         <v>112.01</v>
       </c>
       <c r="O96">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>138.01</v>
       </c>
       <c r="P96">
@@ -16964,7 +17882,7 @@
         <v>111.1</v>
       </c>
       <c r="V96">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>105.1</v>
       </c>
       <c r="W96">
@@ -16980,7 +17898,7 @@
         <v>110</v>
       </c>
       <c r="AC96">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>147</v>
       </c>
       <c r="AD96">
@@ -16996,7 +17914,7 @@
         <v>114.09</v>
       </c>
       <c r="AQ96">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>118.09</v>
       </c>
       <c r="AR96">
@@ -17012,7 +17930,7 @@
         <v>117.14</v>
       </c>
       <c r="AX96">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>114.14</v>
       </c>
       <c r="AY96">
@@ -17029,7 +17947,7 @@
         <v>110.02</v>
       </c>
       <c r="BL96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>134.01999999999998</v>
       </c>
       <c r="BM96">
@@ -17047,7 +17965,7 @@
         <v>163.13999999999999</v>
       </c>
       <c r="H97" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>132.13999999999999</v>
       </c>
       <c r="I97">
@@ -17063,7 +17981,7 @@
         <v>113.11</v>
       </c>
       <c r="O97">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>139.11000000000001</v>
       </c>
       <c r="P97">
@@ -17079,7 +17997,7 @@
         <v>112.05</v>
       </c>
       <c r="V97">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>106.05</v>
       </c>
       <c r="W97">
@@ -17095,7 +18013,7 @@
         <v>112.06</v>
       </c>
       <c r="AC97">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>149.06</v>
       </c>
       <c r="AD97">
@@ -17111,7 +18029,7 @@
         <v>115.04</v>
       </c>
       <c r="AQ97">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>119.04</v>
       </c>
       <c r="AR97">
@@ -17127,7 +18045,7 @@
         <v>118.07</v>
       </c>
       <c r="AX97">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>115.07</v>
       </c>
       <c r="AY97">
@@ -17144,7 +18062,7 @@
         <v>111.1</v>
       </c>
       <c r="BL97">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>135.1</v>
       </c>
       <c r="BM97">
@@ -17162,7 +18080,7 @@
         <v>164.11</v>
       </c>
       <c r="H98" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>133.11000000000001</v>
       </c>
       <c r="I98">
@@ -17178,7 +18096,7 @@
         <v>114.03</v>
       </c>
       <c r="O98">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>140.03</v>
       </c>
       <c r="P98">
@@ -17194,7 +18112,7 @@
         <v>113.12</v>
       </c>
       <c r="V98">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>107.12</v>
       </c>
       <c r="W98">
@@ -17210,7 +18128,7 @@
         <v>113.13</v>
       </c>
       <c r="AC98">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>150.13</v>
       </c>
       <c r="AD98">
@@ -17226,7 +18144,7 @@
         <v>119.02</v>
       </c>
       <c r="AX98">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>116.02</v>
       </c>
       <c r="AY98">
@@ -17243,7 +18161,7 @@
         <v>112.06</v>
       </c>
       <c r="BL98">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>136.06</v>
       </c>
       <c r="BM98">
@@ -17261,7 +18179,7 @@
         <v>165.04</v>
       </c>
       <c r="H99" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>134.04</v>
       </c>
       <c r="I99">
@@ -17277,7 +18195,7 @@
         <v>115.13</v>
       </c>
       <c r="O99">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>141.13</v>
       </c>
       <c r="P99">
@@ -17293,7 +18211,7 @@
         <v>114.02</v>
       </c>
       <c r="V99">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>108.02</v>
       </c>
       <c r="W99">
@@ -17309,7 +18227,7 @@
         <v>114.06</v>
       </c>
       <c r="AC99">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>151.06</v>
       </c>
       <c r="AD99">
@@ -17325,7 +18243,7 @@
         <v>120.11</v>
       </c>
       <c r="AX99">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>117.11</v>
       </c>
       <c r="AY99">
@@ -17342,7 +18260,7 @@
         <v>114.15</v>
       </c>
       <c r="BL99">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>138.15</v>
       </c>
       <c r="BM99">
@@ -17360,7 +18278,7 @@
         <v>166.09</v>
       </c>
       <c r="H100" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>135.09</v>
       </c>
       <c r="I100">
@@ -17376,7 +18294,7 @@
         <v>116.08</v>
       </c>
       <c r="O100">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>142.07999999999998</v>
       </c>
       <c r="P100">
@@ -17392,7 +18310,7 @@
         <v>115.06</v>
       </c>
       <c r="V100">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>109.06</v>
       </c>
       <c r="W100">
@@ -17408,7 +18326,7 @@
         <v>115.03</v>
       </c>
       <c r="AC100">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>152.03</v>
       </c>
       <c r="AD100">
@@ -17425,7 +18343,7 @@
         <v>115.1</v>
       </c>
       <c r="BL100">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>139.1</v>
       </c>
       <c r="BM100">
@@ -17443,7 +18361,7 @@
         <v>167.05</v>
       </c>
       <c r="H101" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>136.05000000000001</v>
       </c>
       <c r="I101">
@@ -17459,7 +18377,7 @@
         <v>117.04</v>
       </c>
       <c r="O101">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>143.04000000000002</v>
       </c>
       <c r="P101">
@@ -17475,7 +18393,7 @@
         <v>116.12</v>
       </c>
       <c r="V101">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>110.12</v>
       </c>
       <c r="W101">
@@ -17491,7 +18409,7 @@
         <v>116.02</v>
       </c>
       <c r="AC101">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>153.01999999999998</v>
       </c>
       <c r="AD101">
@@ -17508,7 +18426,7 @@
         <v>116.09</v>
       </c>
       <c r="BL101">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>140.09</v>
       </c>
       <c r="BM101">
@@ -17526,7 +18444,7 @@
         <v>168.01</v>
       </c>
       <c r="H102" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>137.01</v>
       </c>
       <c r="I102">
@@ -17542,7 +18460,7 @@
         <v>118.14</v>
       </c>
       <c r="O102">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>144.13999999999999</v>
       </c>
       <c r="P102">
@@ -17558,7 +18476,7 @@
         <v>117.04</v>
       </c>
       <c r="V102">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>111.04</v>
       </c>
       <c r="W102">
@@ -17574,7 +18492,7 @@
         <v>117.12</v>
       </c>
       <c r="AC102">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>154.12</v>
       </c>
       <c r="AD102">
@@ -17593,7 +18511,7 @@
         <v>169.13</v>
       </c>
       <c r="H103" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>138.13</v>
       </c>
       <c r="I103">
@@ -17609,7 +18527,7 @@
         <v>120.05</v>
       </c>
       <c r="O103">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>146.05000000000001</v>
       </c>
       <c r="P103">
@@ -17625,7 +18543,7 @@
         <v>118.01</v>
       </c>
       <c r="V103">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>112.01</v>
       </c>
       <c r="W103">
@@ -17641,7 +18559,7 @@
         <v>118.08</v>
       </c>
       <c r="AC103">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>155.07999999999998</v>
       </c>
       <c r="AD103">
@@ -17660,7 +18578,7 @@
         <v>170.03</v>
       </c>
       <c r="H104" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>139.03</v>
       </c>
       <c r="I104">
@@ -17676,7 +18594,7 @@
         <v>121.11</v>
       </c>
       <c r="O104">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>147.11000000000001</v>
       </c>
       <c r="P104">
@@ -17692,7 +18610,7 @@
         <v>119.13</v>
       </c>
       <c r="V104">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>113.13</v>
       </c>
       <c r="W104">
@@ -17708,7 +18626,7 @@
         <v>119.01</v>
       </c>
       <c r="AC104">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>156.01</v>
       </c>
       <c r="AD104">
@@ -17727,7 +18645,7 @@
         <v>171.17</v>
       </c>
       <c r="H105" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>140.16999999999999</v>
       </c>
       <c r="I105">
@@ -17743,7 +18661,7 @@
         <v>122.04</v>
       </c>
       <c r="O105">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>148.04000000000002</v>
       </c>
       <c r="P105">
@@ -17759,7 +18677,7 @@
         <v>120.05</v>
       </c>
       <c r="V105">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>114.05</v>
       </c>
       <c r="W105">
@@ -17775,7 +18693,7 @@
         <v>120.11</v>
       </c>
       <c r="AC105">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>157.11000000000001</v>
       </c>
       <c r="AD105">
@@ -17794,7 +18712,7 @@
         <v>172.1</v>
       </c>
       <c r="H106" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>141.1</v>
       </c>
       <c r="I106">
@@ -17810,7 +18728,7 @@
         <v>123.1</v>
       </c>
       <c r="O106">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>149.1</v>
       </c>
       <c r="P106">
@@ -17826,7 +18744,7 @@
         <v>121.16</v>
       </c>
       <c r="V106">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>115.16</v>
       </c>
       <c r="W106">
@@ -17842,7 +18760,7 @@
         <v>122.05</v>
       </c>
       <c r="AC106">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>159.05000000000001</v>
       </c>
       <c r="AD106">
@@ -17861,7 +18779,7 @@
         <v>173.02</v>
       </c>
       <c r="H107" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>142.02000000000001</v>
       </c>
       <c r="I107">
@@ -17877,7 +18795,7 @@
         <v>124.13</v>
       </c>
       <c r="O107">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>150.13</v>
       </c>
       <c r="P107">
@@ -17893,7 +18811,7 @@
         <v>122.14</v>
       </c>
       <c r="V107">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>116.14</v>
       </c>
       <c r="W107">
@@ -17909,7 +18827,7 @@
         <v>123.11</v>
       </c>
       <c r="AC107">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>160.11000000000001</v>
       </c>
       <c r="AD107">
@@ -17928,7 +18846,7 @@
         <v>174.08</v>
       </c>
       <c r="H108" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>143.08000000000001</v>
       </c>
       <c r="I108">
@@ -17944,7 +18862,7 @@
         <v>125.05</v>
       </c>
       <c r="O108">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>151.05000000000001</v>
       </c>
       <c r="P108">
@@ -17960,7 +18878,7 @@
         <v>123.1</v>
       </c>
       <c r="V108">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>117.1</v>
       </c>
       <c r="W108">
@@ -17976,7 +18894,7 @@
         <v>124.01</v>
       </c>
       <c r="AC108">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>161.01</v>
       </c>
       <c r="AD108">
@@ -17995,7 +18913,7 @@
         <v>175.03</v>
       </c>
       <c r="H109" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>144.03</v>
       </c>
       <c r="I109">
@@ -18011,7 +18929,7 @@
         <v>126.11</v>
       </c>
       <c r="O109">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>152.11000000000001</v>
       </c>
       <c r="P109">
@@ -18027,7 +18945,7 @@
         <v>124.03</v>
       </c>
       <c r="V109">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>118.03</v>
       </c>
       <c r="W109">
@@ -18043,7 +18961,7 @@
         <v>125.1</v>
       </c>
       <c r="AC109">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>162.1</v>
       </c>
       <c r="AD109">
@@ -18062,7 +18980,7 @@
         <v>176.15</v>
       </c>
       <c r="H110" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>145.15</v>
       </c>
       <c r="I110">
@@ -18078,7 +18996,7 @@
         <v>127.03</v>
       </c>
       <c r="O110">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>153.03</v>
       </c>
       <c r="P110">
@@ -18094,7 +19012,7 @@
         <v>125.12</v>
       </c>
       <c r="V110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>119.12</v>
       </c>
       <c r="W110">
@@ -18110,7 +19028,7 @@
         <v>126.01</v>
       </c>
       <c r="AC110">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>163.01</v>
       </c>
       <c r="AD110">
@@ -18129,7 +19047,7 @@
         <v>177.1</v>
       </c>
       <c r="H111" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>146.1</v>
       </c>
       <c r="I111">
@@ -18145,7 +19063,7 @@
         <v>128.1</v>
       </c>
       <c r="O111">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>154.1</v>
       </c>
       <c r="P111">
@@ -18161,7 +19079,7 @@
         <v>126.02</v>
       </c>
       <c r="V111">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>120.02</v>
       </c>
       <c r="W111">
@@ -18177,7 +19095,7 @@
         <v>127.12</v>
       </c>
       <c r="AC111">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>164.12</v>
       </c>
       <c r="AD111">
@@ -18196,7 +19114,7 @@
         <v>178.06</v>
       </c>
       <c r="H112" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>147.06</v>
       </c>
       <c r="I112">
@@ -18212,7 +19130,7 @@
         <v>130.13</v>
       </c>
       <c r="O112">
-        <f t="shared" ref="O112:O156" si="18">N112+26</f>
+        <f t="shared" ref="O112:O156" si="19">N112+26</f>
         <v>156.13</v>
       </c>
       <c r="P112">
@@ -18228,7 +19146,7 @@
         <v>127.1</v>
       </c>
       <c r="V112">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>121.1</v>
       </c>
       <c r="W112">
@@ -18244,7 +19162,7 @@
         <v>128.09</v>
       </c>
       <c r="AC112">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>165.09</v>
       </c>
       <c r="AD112">
@@ -18263,7 +19181,7 @@
         <v>179.03</v>
       </c>
       <c r="H113" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>148.03</v>
       </c>
       <c r="I113">
@@ -18279,7 +19197,7 @@
         <v>131.06</v>
       </c>
       <c r="O113">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>157.06</v>
       </c>
       <c r="P113">
@@ -18295,7 +19213,7 @@
         <v>128.03</v>
       </c>
       <c r="V113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>122.03</v>
       </c>
       <c r="W113">
@@ -18311,7 +19229,7 @@
         <v>129.02000000000001</v>
       </c>
       <c r="AC113">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>166.02</v>
       </c>
       <c r="AD113">
@@ -18330,7 +19248,7 @@
         <v>180.15</v>
       </c>
       <c r="H114" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>149.15</v>
       </c>
       <c r="I114">
@@ -18346,7 +19264,7 @@
         <v>132.13</v>
       </c>
       <c r="O114">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>158.13</v>
       </c>
       <c r="P114">
@@ -18362,7 +19280,7 @@
         <v>129.11000000000001</v>
       </c>
       <c r="V114">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>123.11000000000001</v>
       </c>
       <c r="W114">
@@ -18378,7 +19296,7 @@
         <v>130.13</v>
       </c>
       <c r="AC114">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>167.13</v>
       </c>
       <c r="AD114">
@@ -18397,7 +19315,7 @@
         <v>181.12</v>
       </c>
       <c r="H115" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>150.12</v>
       </c>
       <c r="I115">
@@ -18413,7 +19331,7 @@
         <v>133.09</v>
       </c>
       <c r="O115">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>159.09</v>
       </c>
       <c r="P115">
@@ -18429,7 +19347,7 @@
         <v>130.09</v>
       </c>
       <c r="V115">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>124.09</v>
       </c>
       <c r="W115">
@@ -18445,7 +19363,7 @@
         <v>132.11000000000001</v>
       </c>
       <c r="AC115">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>169.11</v>
       </c>
       <c r="AD115">
@@ -18464,7 +19382,7 @@
         <v>182.05</v>
       </c>
       <c r="H116" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>151.05000000000001</v>
       </c>
       <c r="I116">
@@ -18480,7 +19398,7 @@
         <v>134.05000000000001</v>
       </c>
       <c r="O116">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>160.05000000000001</v>
       </c>
       <c r="P116">
@@ -18496,7 +19414,7 @@
         <v>131.16</v>
       </c>
       <c r="V116">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>125.16</v>
       </c>
       <c r="W116">
@@ -18512,7 +19430,7 @@
         <v>133.05000000000001</v>
       </c>
       <c r="AC116">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>170.05</v>
       </c>
       <c r="AD116">
@@ -18531,7 +19449,7 @@
         <v>183.16</v>
       </c>
       <c r="H117" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>152.16</v>
       </c>
       <c r="I117">
@@ -18547,7 +19465,7 @@
         <v>135.15</v>
       </c>
       <c r="O117">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>161.15</v>
       </c>
       <c r="P117">
@@ -18563,7 +19481,7 @@
         <v>132.1</v>
       </c>
       <c r="V117">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>126.1</v>
       </c>
       <c r="W117">
@@ -18579,7 +19497,7 @@
         <v>134.15</v>
       </c>
       <c r="AC117">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>171.15</v>
       </c>
       <c r="AD117">
@@ -18598,7 +19516,7 @@
         <v>184.11</v>
       </c>
       <c r="H118" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>153.11000000000001</v>
       </c>
       <c r="I118">
@@ -18614,7 +19532,7 @@
         <v>136.11000000000001</v>
       </c>
       <c r="O118">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>162.11000000000001</v>
       </c>
       <c r="P118">
@@ -18630,7 +19548,7 @@
         <v>133.07</v>
       </c>
       <c r="V118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>127.07</v>
       </c>
       <c r="W118">
@@ -18646,7 +19564,7 @@
         <v>135.11000000000001</v>
       </c>
       <c r="AC118">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>172.11</v>
       </c>
       <c r="AD118">
@@ -18665,7 +19583,7 @@
         <v>185.09</v>
       </c>
       <c r="H119" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>154.09</v>
       </c>
       <c r="I119">
@@ -18681,7 +19599,7 @@
         <v>137.04</v>
       </c>
       <c r="O119">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>163.04</v>
       </c>
       <c r="P119">
@@ -18697,7 +19615,7 @@
         <v>134</v>
       </c>
       <c r="V119">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>128</v>
       </c>
       <c r="W119">
@@ -18713,7 +19631,7 @@
         <v>136.09</v>
       </c>
       <c r="AC119">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>173.09</v>
       </c>
       <c r="AD119">
@@ -18732,7 +19650,7 @@
         <v>186.03</v>
       </c>
       <c r="H120" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>155.03</v>
       </c>
       <c r="I120">
@@ -18748,7 +19666,7 @@
         <v>138.12</v>
       </c>
       <c r="O120">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>164.12</v>
       </c>
       <c r="P120">
@@ -18764,7 +19682,7 @@
         <v>135.09</v>
       </c>
       <c r="V120">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>129.09</v>
       </c>
       <c r="W120">
@@ -18780,7 +19698,7 @@
         <v>137.03</v>
       </c>
       <c r="AC120">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>174.03</v>
       </c>
       <c r="AD120">
@@ -18799,7 +19717,7 @@
         <v>187</v>
       </c>
       <c r="H121" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>156</v>
       </c>
       <c r="I121">
@@ -18815,7 +19733,7 @@
         <v>140.13999999999999</v>
       </c>
       <c r="O121">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>166.14</v>
       </c>
       <c r="P121">
@@ -18831,7 +19749,7 @@
         <v>136.02000000000001</v>
       </c>
       <c r="V121">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>130.02000000000001</v>
       </c>
       <c r="W121">
@@ -18847,7 +19765,7 @@
         <v>138.12</v>
       </c>
       <c r="AC121">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>175.12</v>
       </c>
       <c r="AD121">
@@ -18867,7 +19785,7 @@
         <v>141.05000000000001</v>
       </c>
       <c r="O122">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>167.05</v>
       </c>
       <c r="P122">
@@ -18883,7 +19801,7 @@
         <v>137.11000000000001</v>
       </c>
       <c r="V122">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>131.11000000000001</v>
       </c>
       <c r="W122">
@@ -18899,7 +19817,7 @@
         <v>139.03</v>
       </c>
       <c r="AC122">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>176.03</v>
       </c>
       <c r="AD122">
@@ -18919,7 +19837,7 @@
         <v>142.01</v>
       </c>
       <c r="O123">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>168.01</v>
       </c>
       <c r="P123">
@@ -18935,7 +19853,7 @@
         <v>138.02000000000001</v>
       </c>
       <c r="V123">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>132.02000000000001</v>
       </c>
       <c r="W123">
@@ -18951,7 +19869,7 @@
         <v>140.08000000000001</v>
       </c>
       <c r="AC123">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>177.08</v>
       </c>
       <c r="AD123">
@@ -18971,7 +19889,7 @@
         <v>143.09</v>
       </c>
       <c r="O124">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>169.09</v>
       </c>
       <c r="P124">
@@ -18987,7 +19905,7 @@
         <v>139.1</v>
       </c>
       <c r="V124">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>133.1</v>
       </c>
       <c r="W124">
@@ -19003,7 +19921,7 @@
         <v>142.1</v>
       </c>
       <c r="AC124">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>179.1</v>
       </c>
       <c r="AD124">
@@ -19022,7 +19940,7 @@
         <v>144.15</v>
       </c>
       <c r="O125">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>170.15</v>
       </c>
       <c r="P125">
@@ -19038,7 +19956,7 @@
         <v>140.07</v>
       </c>
       <c r="V125">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>134.07</v>
       </c>
       <c r="W125">
@@ -19054,7 +19972,7 @@
         <v>143.13999999999999</v>
       </c>
       <c r="AC125">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>180.14</v>
       </c>
       <c r="AD125">
@@ -19073,7 +19991,7 @@
         <v>145.07</v>
       </c>
       <c r="O126">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>171.07</v>
       </c>
       <c r="P126">
@@ -19089,7 +20007,7 @@
         <v>141.16999999999999</v>
       </c>
       <c r="V126">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>135.16999999999999</v>
       </c>
       <c r="W126">
@@ -19105,7 +20023,7 @@
         <v>144.07</v>
       </c>
       <c r="AC126">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>181.07</v>
       </c>
       <c r="AD126">
@@ -19124,7 +20042,7 @@
         <v>146</v>
       </c>
       <c r="O127">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>172</v>
       </c>
       <c r="P127">
@@ -19140,7 +20058,7 @@
         <v>142.15</v>
       </c>
       <c r="V127">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>136.15</v>
       </c>
       <c r="W127">
@@ -19156,7 +20074,7 @@
         <v>145.12</v>
       </c>
       <c r="AC127">
-        <f t="shared" ref="AC127:AC147" si="19">AB127+37</f>
+        <f t="shared" ref="AC127:AC147" si="20">AB127+37</f>
         <v>182.12</v>
       </c>
       <c r="AD127">
@@ -19175,7 +20093,7 @@
         <v>147.09</v>
       </c>
       <c r="O128">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>173.09</v>
       </c>
       <c r="P128">
@@ -19191,7 +20109,7 @@
         <v>143.04</v>
       </c>
       <c r="V128">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>137.04</v>
       </c>
       <c r="W128">
@@ -19207,7 +20125,7 @@
         <v>146.08000000000001</v>
       </c>
       <c r="AC128">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>183.08</v>
       </c>
       <c r="AD128">
@@ -19226,7 +20144,7 @@
         <v>148.04</v>
       </c>
       <c r="O129">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>174.04</v>
       </c>
       <c r="P129">
@@ -19242,7 +20160,7 @@
         <v>144.09</v>
       </c>
       <c r="V129">
-        <f t="shared" ref="V129:V150" si="20">U129-6</f>
+        <f t="shared" ref="V129:V150" si="21">U129-6</f>
         <v>138.09</v>
       </c>
       <c r="W129">
@@ -19258,7 +20176,7 @@
         <v>147</v>
       </c>
       <c r="AC129">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>184</v>
       </c>
       <c r="AD129">
@@ -19277,7 +20195,7 @@
         <v>149.13</v>
       </c>
       <c r="O130">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>175.13</v>
       </c>
       <c r="P130">
@@ -19293,7 +20211,7 @@
         <v>145.02000000000001</v>
       </c>
       <c r="V130">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>139.02000000000001</v>
       </c>
       <c r="W130">
@@ -19309,7 +20227,7 @@
         <v>148.1</v>
       </c>
       <c r="AC130">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>185.1</v>
       </c>
       <c r="AD130">
@@ -19328,7 +20246,7 @@
         <v>150.06</v>
       </c>
       <c r="O131">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>176.06</v>
       </c>
       <c r="P131">
@@ -19344,7 +20262,7 @@
         <v>146.11000000000001</v>
       </c>
       <c r="V131">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>140.11000000000001</v>
       </c>
       <c r="W131">
@@ -19360,7 +20278,7 @@
         <v>149.12</v>
       </c>
       <c r="AC131">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>186.12</v>
       </c>
       <c r="AD131">
@@ -19379,7 +20297,7 @@
         <v>151.13</v>
       </c>
       <c r="O132">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>177.13</v>
       </c>
       <c r="P132">
@@ -19395,7 +20313,7 @@
         <v>148.15</v>
       </c>
       <c r="V132">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>142.15</v>
       </c>
       <c r="W132">
@@ -19411,7 +20329,7 @@
         <v>150.05000000000001</v>
       </c>
       <c r="AC132">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>187.05</v>
       </c>
       <c r="AD132">
@@ -19430,7 +20348,7 @@
         <v>152.1</v>
       </c>
       <c r="O133">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>178.1</v>
       </c>
       <c r="P133">
@@ -19446,7 +20364,7 @@
         <v>149.11000000000001</v>
       </c>
       <c r="V133">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>143.11000000000001</v>
       </c>
       <c r="W133">
@@ -19462,7 +20380,7 @@
         <v>151.09</v>
       </c>
       <c r="AC133">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>188.09</v>
       </c>
       <c r="AD133">
@@ -19481,7 +20399,7 @@
         <v>153.04</v>
       </c>
       <c r="O134">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>179.04</v>
       </c>
       <c r="P134">
@@ -19497,7 +20415,7 @@
         <v>150.15</v>
       </c>
       <c r="V134">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>144.15</v>
       </c>
       <c r="W134">
@@ -19513,7 +20431,7 @@
         <v>152</v>
       </c>
       <c r="AC134">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>189</v>
       </c>
       <c r="AD134">
@@ -19532,7 +20450,7 @@
         <v>154.1</v>
       </c>
       <c r="O135">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>180.1</v>
       </c>
       <c r="P135">
@@ -19548,7 +20466,7 @@
         <v>151.11000000000001</v>
       </c>
       <c r="V135">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>145.11000000000001</v>
       </c>
       <c r="W135">
@@ -19564,7 +20482,7 @@
         <v>153.06</v>
       </c>
       <c r="AC135">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>190.06</v>
       </c>
       <c r="AD135">
@@ -19583,7 +20501,7 @@
         <v>155.01</v>
       </c>
       <c r="O136">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>181.01</v>
       </c>
       <c r="P136">
@@ -19599,7 +20517,7 @@
         <v>152.05000000000001</v>
       </c>
       <c r="V136">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>146.05000000000001</v>
       </c>
       <c r="W136">
@@ -19615,7 +20533,7 @@
         <v>154.04</v>
       </c>
       <c r="AC136">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>191.04</v>
       </c>
       <c r="AD136">
@@ -19634,7 +20552,7 @@
         <v>156.12</v>
       </c>
       <c r="O137">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>182.12</v>
       </c>
       <c r="P137">
@@ -19650,7 +20568,7 @@
         <v>153.15</v>
       </c>
       <c r="V137">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>147.15</v>
       </c>
       <c r="W137">
@@ -19666,7 +20584,7 @@
         <v>155.15</v>
       </c>
       <c r="AC137">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>192.15</v>
       </c>
       <c r="AD137">
@@ -19685,7 +20603,7 @@
         <v>157.05000000000001</v>
       </c>
       <c r="O138">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>183.05</v>
       </c>
       <c r="P138">
@@ -19701,7 +20619,7 @@
         <v>154.12</v>
       </c>
       <c r="V138">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>148.12</v>
       </c>
       <c r="W138">
@@ -19717,7 +20635,7 @@
         <v>156.03</v>
       </c>
       <c r="AC138">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>193.03</v>
       </c>
       <c r="AD138">
@@ -19736,7 +20654,7 @@
         <v>158.02000000000001</v>
       </c>
       <c r="O139">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>184.02</v>
       </c>
       <c r="P139">
@@ -19752,7 +20670,7 @@
         <v>155.02000000000001</v>
       </c>
       <c r="V139">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>149.02000000000001</v>
       </c>
       <c r="W139">
@@ -19768,7 +20686,7 @@
         <v>157.13</v>
       </c>
       <c r="AC139">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>194.13</v>
       </c>
       <c r="AD139">
@@ -19787,7 +20705,7 @@
         <v>159.13999999999999</v>
       </c>
       <c r="O140">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>185.14</v>
       </c>
       <c r="P140">
@@ -19803,7 +20721,7 @@
         <v>156.11000000000001</v>
       </c>
       <c r="V140">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>150.11000000000001</v>
       </c>
       <c r="W140">
@@ -19819,7 +20737,7 @@
         <v>158.08000000000001</v>
       </c>
       <c r="AC140">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>195.08</v>
       </c>
       <c r="AD140">
@@ -19838,7 +20756,7 @@
         <v>160.11000000000001</v>
       </c>
       <c r="O141">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>186.11</v>
       </c>
       <c r="P141">
@@ -19854,7 +20772,7 @@
         <v>157.03</v>
       </c>
       <c r="V141">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>151.03</v>
       </c>
       <c r="W141">
@@ -19870,7 +20788,7 @@
         <v>159.15</v>
       </c>
       <c r="AC141">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>196.15</v>
       </c>
       <c r="AD141">
@@ -19889,7 +20807,7 @@
         <v>161.06</v>
       </c>
       <c r="O142">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>187.06</v>
       </c>
       <c r="P142">
@@ -19905,7 +20823,7 @@
         <v>158.01</v>
       </c>
       <c r="V142">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>152.01</v>
       </c>
       <c r="W142">
@@ -19921,7 +20839,7 @@
         <v>160.05000000000001</v>
       </c>
       <c r="AC142">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>197.05</v>
       </c>
       <c r="AD142">
@@ -19940,7 +20858,7 @@
         <v>162.13999999999999</v>
       </c>
       <c r="O143">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>188.14</v>
       </c>
       <c r="P143">
@@ -19956,7 +20874,7 @@
         <v>159.13999999999999</v>
       </c>
       <c r="V143">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>153.13999999999999</v>
       </c>
       <c r="W143">
@@ -19972,7 +20890,7 @@
         <v>161.09</v>
       </c>
       <c r="AC143">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>198.09</v>
       </c>
       <c r="AD143">
@@ -19991,7 +20909,7 @@
         <v>163.08000000000001</v>
       </c>
       <c r="O144">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>189.08</v>
       </c>
       <c r="P144">
@@ -20007,7 +20925,7 @@
         <v>160.09</v>
       </c>
       <c r="V144">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>154.09</v>
       </c>
       <c r="W144">
@@ -20023,7 +20941,7 @@
         <v>162.05000000000001</v>
       </c>
       <c r="AC144">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>199.05</v>
       </c>
       <c r="AD144">
@@ -20042,7 +20960,7 @@
         <v>164.16</v>
       </c>
       <c r="O145">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>190.16</v>
       </c>
       <c r="P145">
@@ -20058,7 +20976,7 @@
         <v>161.03</v>
       </c>
       <c r="V145">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>155.03</v>
       </c>
       <c r="W145">
@@ -20074,7 +20992,7 @@
         <v>163</v>
       </c>
       <c r="AC145">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>200</v>
       </c>
       <c r="AD145">
@@ -20093,7 +21011,7 @@
         <v>165.1</v>
       </c>
       <c r="O146">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>191.1</v>
       </c>
       <c r="P146">
@@ -20109,7 +21027,7 @@
         <v>162.13</v>
       </c>
       <c r="V146">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>156.13</v>
       </c>
       <c r="W146">
@@ -20125,7 +21043,7 @@
         <v>164.07</v>
       </c>
       <c r="AC146">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>201.07</v>
       </c>
       <c r="AD146">
@@ -20144,7 +21062,7 @@
         <v>166.06</v>
       </c>
       <c r="O147">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>192.06</v>
       </c>
       <c r="P147">
@@ -20160,7 +21078,7 @@
         <v>163.07</v>
       </c>
       <c r="V147">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>157.07</v>
       </c>
       <c r="W147">
@@ -20176,7 +21094,7 @@
         <v>165.01</v>
       </c>
       <c r="AC147">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>202.01</v>
       </c>
       <c r="AD147">
@@ -20195,7 +21113,7 @@
         <v>167.14</v>
       </c>
       <c r="O148">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>193.14</v>
       </c>
       <c r="P148">
@@ -20211,7 +21129,7 @@
         <v>164.14</v>
       </c>
       <c r="V148">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>158.13999999999999</v>
       </c>
       <c r="W148">
@@ -20230,7 +21148,7 @@
         <v>168.06</v>
       </c>
       <c r="O149">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>194.06</v>
       </c>
       <c r="P149">
@@ -20246,7 +21164,7 @@
         <v>165.1</v>
       </c>
       <c r="V149">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>159.1</v>
       </c>
       <c r="W149">
@@ -20265,7 +21183,7 @@
         <v>169.14</v>
       </c>
       <c r="O150">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>195.14</v>
       </c>
       <c r="P150">
@@ -20281,7 +21199,7 @@
         <v>166.13</v>
       </c>
       <c r="V150">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>160.13</v>
       </c>
       <c r="W150">
@@ -20300,7 +21218,7 @@
         <v>170.05</v>
       </c>
       <c r="O151">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>196.05</v>
       </c>
       <c r="P151">
@@ -20319,7 +21237,7 @@
         <v>171.09</v>
       </c>
       <c r="O152">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>197.09</v>
       </c>
       <c r="P152">
@@ -20338,7 +21256,7 @@
         <v>172.02</v>
       </c>
       <c r="O153">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>198.02</v>
       </c>
       <c r="P153">
@@ -20357,7 +21275,7 @@
         <v>173.13</v>
       </c>
       <c r="O154">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>199.13</v>
       </c>
       <c r="P154">
@@ -20376,7 +21294,7 @@
         <v>174.05</v>
       </c>
       <c r="O155">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>200.05</v>
       </c>
       <c r="P155">
@@ -20395,7 +21313,7 @@
         <v>175.15</v>
       </c>
       <c r="O156">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>201.15</v>
       </c>
       <c r="P156">
